--- a/raw_data/20200818_saline/20200818_Sensor2_Test_37.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_37.xlsx
@@ -1,6903 +1,7320 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBA4BE6-B7D9-4A41-B152-FC6A90B3485C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>32771.746963</v>
+        <v>32771.746962999998</v>
       </c>
       <c r="B2" s="1">
-        <v>9.103263</v>
+        <v>9.1032630000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1242.050000</v>
+        <v>1242.05</v>
       </c>
       <c r="D2" s="1">
-        <v>-292.854000</v>
+        <v>-292.85399999999998</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>32782.336052</v>
+        <v>32782.336051999999</v>
       </c>
       <c r="G2" s="1">
         <v>9.106204</v>
       </c>
       <c r="H2" s="1">
-        <v>1266.990000</v>
+        <v>1266.99</v>
       </c>
       <c r="I2" s="1">
-        <v>-256.934000</v>
+        <v>-256.93400000000003</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>32793.085878</v>
+        <v>32793.085877999998</v>
       </c>
       <c r="L2" s="1">
-        <v>9.109191</v>
+        <v>9.1091909999999991</v>
       </c>
       <c r="M2" s="1">
-        <v>1305.500000</v>
+        <v>1305.5</v>
       </c>
       <c r="N2" s="1">
-        <v>-200.703000</v>
+        <v>-200.703</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>32803.540520</v>
+        <v>32803.540520000002</v>
       </c>
       <c r="Q2" s="1">
-        <v>9.112095</v>
+        <v>9.1120950000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>1318.680000</v>
+        <v>1318.68</v>
       </c>
       <c r="S2" s="1">
-        <v>-183.902000</v>
+        <v>-183.90199999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>32814.129151</v>
+        <v>32814.129151000001</v>
       </c>
       <c r="V2" s="1">
-        <v>9.115036</v>
+        <v>9.1150359999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1332.980000</v>
+        <v>1332.98</v>
       </c>
       <c r="X2" s="1">
-        <v>-171.133000</v>
+        <v>-171.13300000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>32824.567917</v>
       </c>
       <c r="AA2" s="1">
-        <v>9.117936</v>
+        <v>9.1179360000000003</v>
       </c>
       <c r="AB2" s="1">
-        <v>1351.690000</v>
+        <v>1351.69</v>
       </c>
       <c r="AC2" s="1">
-        <v>-169.408000</v>
+        <v>-169.40799999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>32834.763679</v>
+        <v>32834.763679000003</v>
       </c>
       <c r="AF2" s="1">
         <v>9.120768</v>
       </c>
       <c r="AG2" s="1">
-        <v>1364.880000</v>
+        <v>1364.88</v>
       </c>
       <c r="AH2" s="1">
-        <v>-179.109000</v>
+        <v>-179.10900000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>32845.534801</v>
+        <v>32845.534801000002</v>
       </c>
       <c r="AK2" s="1">
-        <v>9.123760</v>
+        <v>9.1237600000000008</v>
       </c>
       <c r="AL2" s="1">
-        <v>1385.800000</v>
+        <v>1385.8</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.019000</v>
+        <v>-209.01900000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>32855.803507</v>
+        <v>32855.803506999997</v>
       </c>
       <c r="AP2" s="1">
-        <v>9.126612</v>
+        <v>9.1266119999999997</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1407.570000</v>
+        <v>1407.57</v>
       </c>
       <c r="AR2" s="1">
-        <v>-252.818000</v>
+        <v>-252.81800000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>32866.525493</v>
+        <v>32866.525493000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>9.129590</v>
+        <v>9.1295900000000003</v>
       </c>
       <c r="AV2" s="1">
-        <v>1432.110000</v>
+        <v>1432.11</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.831000</v>
+        <v>-312.83100000000002</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>32876.882455</v>
+        <v>32876.882454999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>9.132467</v>
+        <v>9.1324670000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1451.390000</v>
+        <v>1451.39</v>
       </c>
       <c r="BB2" s="1">
-        <v>-365.023000</v>
+        <v>-365.02300000000002</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>32887.504281</v>
+        <v>32887.504281000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>9.135418</v>
+        <v>9.1354179999999996</v>
       </c>
       <c r="BF2" s="1">
-        <v>1536.240000</v>
+        <v>1536.24</v>
       </c>
       <c r="BG2" s="1">
-        <v>-614.053000</v>
+        <v>-614.053</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>32898.127099</v>
+        <v>32898.127098999998</v>
       </c>
       <c r="BJ2" s="1">
-        <v>9.138369</v>
+        <v>9.1383690000000009</v>
       </c>
       <c r="BK2" s="1">
-        <v>1689.850000</v>
+        <v>1689.85</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1061.250000</v>
+        <v>-1061.25</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>32909.544012</v>
+        <v>32909.544011999998</v>
       </c>
       <c r="BO2" s="1">
-        <v>9.141540</v>
+        <v>9.1415400000000009</v>
       </c>
       <c r="BP2" s="1">
-        <v>1983.090000</v>
+        <v>1983.09</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1837.370000</v>
+        <v>-1837.37</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>32919.882624</v>
+        <v>32919.882623999998</v>
       </c>
       <c r="BT2" s="1">
-        <v>9.144412</v>
+        <v>9.1444120000000009</v>
       </c>
       <c r="BU2" s="1">
-        <v>2367.510000</v>
+        <v>2367.5100000000002</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2732.920000</v>
+        <v>-2732.92</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>32930.325889</v>
       </c>
       <c r="BY2" s="1">
-        <v>9.147313</v>
+        <v>9.1473130000000005</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2850.490000</v>
+        <v>2850.49</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3717.610000</v>
+        <v>-3717.61</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>32941.215554</v>
+        <v>32941.215554000002</v>
       </c>
       <c r="CD2" s="1">
-        <v>9.150338</v>
+        <v>9.1503379999999996</v>
       </c>
       <c r="CE2" s="1">
-        <v>4265.680000</v>
+        <v>4265.68</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6081.080000</v>
+        <v>-6081.08</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>32772.096643</v>
+        <v>32772.096642999997</v>
       </c>
       <c r="B3" s="1">
-        <v>9.103360</v>
+        <v>9.1033600000000003</v>
       </c>
       <c r="C3" s="1">
-        <v>1241.780000</v>
+        <v>1241.78</v>
       </c>
       <c r="D3" s="1">
-        <v>-293.368000</v>
+        <v>-293.36799999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>32783.032435</v>
+        <v>32783.032435000001</v>
       </c>
       <c r="G3" s="1">
-        <v>9.106398</v>
+        <v>9.1063980000000004</v>
       </c>
       <c r="H3" s="1">
-        <v>1266.930000</v>
+        <v>1266.93</v>
       </c>
       <c r="I3" s="1">
-        <v>-256.404000</v>
+        <v>-256.404</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>32793.432588</v>
+        <v>32793.432588000003</v>
       </c>
       <c r="L3" s="1">
-        <v>9.109287</v>
+        <v>9.1092870000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1305.360000</v>
+        <v>1305.3599999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-200.996000</v>
+        <v>-200.99600000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>32803.925417</v>
+        <v>32803.925416999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>9.112202</v>
+        <v>9.1122019999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1318.760000</v>
+        <v>1318.76</v>
       </c>
       <c r="S3" s="1">
-        <v>-183.920000</v>
+        <v>-183.92</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>32814.490233</v>
+        <v>32814.490232999997</v>
       </c>
       <c r="V3" s="1">
-        <v>9.115136</v>
+        <v>9.1151359999999997</v>
       </c>
       <c r="W3" s="1">
-        <v>1333.080000</v>
+        <v>1333.08</v>
       </c>
       <c r="X3" s="1">
-        <v>-171.263000</v>
+        <v>-171.26300000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>32824.919581</v>
+        <v>32824.919581000002</v>
       </c>
       <c r="AA3" s="1">
-        <v>9.118033</v>
+        <v>9.1180330000000005</v>
       </c>
       <c r="AB3" s="1">
-        <v>1351.460000</v>
+        <v>1351.46</v>
       </c>
       <c r="AC3" s="1">
-        <v>-169.244000</v>
+        <v>-169.244</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>32835.459601</v>
+        <v>32835.459601000002</v>
       </c>
       <c r="AF3" s="1">
-        <v>9.120961</v>
+        <v>9.1209609999999994</v>
       </c>
       <c r="AG3" s="1">
-        <v>1364.900000</v>
+        <v>1364.9</v>
       </c>
       <c r="AH3" s="1">
-        <v>-179.091000</v>
+        <v>-179.09100000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>32845.644912</v>
+        <v>32845.644912000003</v>
       </c>
       <c r="AK3" s="1">
-        <v>9.123790</v>
+        <v>9.1237899999999996</v>
       </c>
       <c r="AL3" s="1">
-        <v>1385.820000</v>
+        <v>1385.82</v>
       </c>
       <c r="AM3" s="1">
-        <v>-208.984000</v>
+        <v>-208.98400000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>32856.228083</v>
+        <v>32856.228083000002</v>
       </c>
       <c r="AP3" s="1">
-        <v>9.126730</v>
+        <v>9.1267300000000002</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1407.540000</v>
+        <v>1407.54</v>
       </c>
       <c r="AR3" s="1">
-        <v>-252.780000</v>
+        <v>-252.78</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>32866.894021</v>
       </c>
       <c r="AU3" s="1">
-        <v>9.129693</v>
+        <v>9.1296929999999996</v>
       </c>
       <c r="AV3" s="1">
-        <v>1432.120000</v>
+        <v>1432.12</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.842000</v>
+        <v>-312.84199999999998</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>32877.269346</v>
+        <v>32877.269346000001</v>
       </c>
       <c r="AZ3" s="1">
-        <v>9.132575</v>
+        <v>9.1325749999999992</v>
       </c>
       <c r="BA3" s="1">
-        <v>1451.330000</v>
+        <v>1451.33</v>
       </c>
       <c r="BB3" s="1">
-        <v>-365.048000</v>
+        <v>-365.048</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>32887.888186</v>
+        <v>32887.888185999996</v>
       </c>
       <c r="BE3" s="1">
-        <v>9.135524</v>
+        <v>9.1355240000000002</v>
       </c>
       <c r="BF3" s="1">
-        <v>1536.210000</v>
+        <v>1536.21</v>
       </c>
       <c r="BG3" s="1">
-        <v>-614.107000</v>
+        <v>-614.10699999999997</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>32898.546747</v>
       </c>
       <c r="BJ3" s="1">
-        <v>9.138485</v>
+        <v>9.1384849999999993</v>
       </c>
       <c r="BK3" s="1">
-        <v>1689.790000</v>
+        <v>1689.79</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1061.350000</v>
+        <v>-1061.3499999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>32909.669534</v>
+        <v>32909.669534000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>9.141575</v>
+        <v>9.1415749999999996</v>
       </c>
       <c r="BP3" s="1">
-        <v>1982.890000</v>
+        <v>1982.89</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1837.390000</v>
+        <v>-1837.39</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>32920.081022</v>
+        <v>32920.081021999998</v>
       </c>
       <c r="BT3" s="1">
-        <v>9.144467</v>
+        <v>9.1444670000000006</v>
       </c>
       <c r="BU3" s="1">
-        <v>2367.150000</v>
+        <v>2367.15</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2732.850000</v>
+        <v>-2732.85</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>32930.810514</v>
+        <v>32930.810513999997</v>
       </c>
       <c r="BY3" s="1">
-        <v>9.147447</v>
+        <v>9.1474469999999997</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2849.840000</v>
+        <v>2849.84</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3717.640000</v>
+        <v>-3717.64</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>32941.780498</v>
       </c>
       <c r="CD3" s="1">
-        <v>9.150495</v>
+        <v>9.1504949999999994</v>
       </c>
       <c r="CE3" s="1">
-        <v>4264.460000</v>
+        <v>4264.46</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6106.700000</v>
+        <v>-6106.7</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>32772.786576</v>
+        <v>32772.786575999999</v>
       </c>
       <c r="B4" s="1">
-        <v>9.103552</v>
+        <v>9.1035520000000005</v>
       </c>
       <c r="C4" s="1">
-        <v>1241.670000</v>
+        <v>1241.67</v>
       </c>
       <c r="D4" s="1">
-        <v>-292.860000</v>
+        <v>-292.86</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>32783.367731</v>
+        <v>32783.367730999998</v>
       </c>
       <c r="G4" s="1">
-        <v>9.106491</v>
+        <v>9.1064910000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>1266.930000</v>
+        <v>1266.93</v>
       </c>
       <c r="I4" s="1">
-        <v>-256.679000</v>
+        <v>-256.67899999999997</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>32793.782229</v>
+        <v>32793.782228999997</v>
       </c>
       <c r="L4" s="1">
-        <v>9.109384</v>
+        <v>9.1093840000000004</v>
       </c>
       <c r="M4" s="1">
-        <v>1305.340000</v>
+        <v>1305.3399999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-200.667000</v>
+        <v>-200.667</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>32804.273609</v>
+        <v>32804.273609000003</v>
       </c>
       <c r="Q4" s="1">
-        <v>9.112298</v>
+        <v>9.1122979999999991</v>
       </c>
       <c r="R4" s="1">
-        <v>1318.680000</v>
+        <v>1318.68</v>
       </c>
       <c r="S4" s="1">
-        <v>-184.047000</v>
+        <v>-184.047</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>32815.141450</v>
+        <v>32815.141450000003</v>
       </c>
       <c r="V4" s="1">
-        <v>9.115317</v>
+        <v>9.1153169999999992</v>
       </c>
       <c r="W4" s="1">
-        <v>1333.170000</v>
+        <v>1333.17</v>
       </c>
       <c r="X4" s="1">
-        <v>-171.285000</v>
+        <v>-171.285</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>32825.366477</v>
+        <v>32825.366477000003</v>
       </c>
       <c r="AA4" s="1">
-        <v>9.118157</v>
+        <v>9.1181570000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>1351.440000</v>
+        <v>1351.44</v>
       </c>
       <c r="AC4" s="1">
-        <v>-169.504000</v>
+        <v>-169.50399999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>32835.830575</v>
       </c>
       <c r="AF4" s="1">
-        <v>9.121064</v>
+        <v>9.1210640000000005</v>
       </c>
       <c r="AG4" s="1">
-        <v>1364.840000</v>
+        <v>1364.84</v>
       </c>
       <c r="AH4" s="1">
-        <v>-179.148000</v>
+        <v>-179.148</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>32845.982690</v>
+        <v>32845.982689999997</v>
       </c>
       <c r="AK4" s="1">
-        <v>9.123884</v>
+        <v>9.1238840000000003</v>
       </c>
       <c r="AL4" s="1">
-        <v>1385.780000</v>
+        <v>1385.78</v>
       </c>
       <c r="AM4" s="1">
-        <v>-208.997000</v>
+        <v>-208.99700000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>32856.588459</v>
+        <v>32856.588458999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>9.126830</v>
+        <v>9.12683</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1407.560000</v>
+        <v>1407.56</v>
       </c>
       <c r="AR4" s="1">
-        <v>-252.810000</v>
+        <v>-252.81</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>32867.258085</v>
+        <v>32867.258085000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>9.129794</v>
+        <v>9.1297940000000004</v>
       </c>
       <c r="AV4" s="1">
-        <v>1432.120000</v>
+        <v>1432.12</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.821000</v>
+        <v>-312.82100000000003</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>32877.690439</v>
+        <v>32877.690438999998</v>
       </c>
       <c r="AZ4" s="1">
-        <v>9.132692</v>
+        <v>9.1326920000000005</v>
       </c>
       <c r="BA4" s="1">
-        <v>1451.390000</v>
+        <v>1451.39</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.993000</v>
+        <v>-364.99299999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>32888.305321</v>
       </c>
       <c r="BE4" s="1">
-        <v>9.135640</v>
+        <v>9.1356400000000004</v>
       </c>
       <c r="BF4" s="1">
-        <v>1536.170000</v>
+        <v>1536.17</v>
       </c>
       <c r="BG4" s="1">
-        <v>-614.101000</v>
+        <v>-614.101</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>32898.898906</v>
+        <v>32898.898906000002</v>
       </c>
       <c r="BJ4" s="1">
-        <v>9.138583</v>
+        <v>9.1385830000000006</v>
       </c>
       <c r="BK4" s="1">
-        <v>1689.740000</v>
+        <v>1689.74</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1061.360000</v>
+        <v>-1061.3599999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>32910.075724</v>
+        <v>32910.075724000002</v>
       </c>
       <c r="BO4" s="1">
-        <v>9.141688</v>
+        <v>9.1416880000000003</v>
       </c>
       <c r="BP4" s="1">
-        <v>1982.790000</v>
+        <v>1982.79</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1837.590000</v>
+        <v>-1837.59</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>32920.508078</v>
+        <v>32920.508077999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>9.144586</v>
+        <v>9.1445860000000003</v>
       </c>
       <c r="BU4" s="1">
-        <v>2367.320000</v>
+        <v>2367.3200000000002</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2733.090000</v>
+        <v>-2733.09</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>32931.255920</v>
+        <v>32931.255920000003</v>
       </c>
       <c r="BY4" s="1">
-        <v>9.147571</v>
+        <v>9.1475709999999992</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2850.900000</v>
+        <v>2850.9</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3717.840000</v>
+        <v>-3717.84</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>32942.647012</v>
+        <v>32942.647012000001</v>
       </c>
       <c r="CD4" s="1">
-        <v>9.150735</v>
+        <v>9.1507349999999992</v>
       </c>
       <c r="CE4" s="1">
-        <v>4257.430000</v>
+        <v>4257.43</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6086.150000</v>
+        <v>-6086.15</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>32773.126832</v>
+        <v>32773.126832000002</v>
       </c>
       <c r="B5" s="1">
-        <v>9.103646</v>
+        <v>9.1036459999999995</v>
       </c>
       <c r="C5" s="1">
-        <v>1241.470000</v>
+        <v>1241.47</v>
       </c>
       <c r="D5" s="1">
-        <v>-293.204000</v>
+        <v>-293.20400000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>32783.711717</v>
+        <v>32783.711716999998</v>
       </c>
       <c r="G5" s="1">
-        <v>9.106587</v>
+        <v>9.1065869999999993</v>
       </c>
       <c r="H5" s="1">
-        <v>1266.850000</v>
+        <v>1266.8499999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-256.494000</v>
+        <v>-256.49400000000003</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>32794.433973</v>
+        <v>32794.433972999999</v>
       </c>
       <c r="L5" s="1">
-        <v>9.109565</v>
+        <v>9.1095649999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1305.200000</v>
+        <v>1305.2</v>
       </c>
       <c r="N5" s="1">
-        <v>-200.628000</v>
+        <v>-200.62799999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>32804.925848</v>
+        <v>32804.925847999999</v>
       </c>
       <c r="Q5" s="1">
-        <v>9.112479</v>
+        <v>9.1124790000000004</v>
       </c>
       <c r="R5" s="1">
-        <v>1318.660000</v>
+        <v>1318.66</v>
       </c>
       <c r="S5" s="1">
-        <v>-184.055000</v>
+        <v>-184.05500000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>32815.519928</v>
+        <v>32815.519928000002</v>
       </c>
       <c r="V5" s="1">
-        <v>9.115422</v>
+        <v>9.1154220000000006</v>
       </c>
       <c r="W5" s="1">
-        <v>1333.040000</v>
+        <v>1333.04</v>
       </c>
       <c r="X5" s="1">
-        <v>-171.314000</v>
+        <v>-171.31399999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>32825.625920</v>
+        <v>32825.625919999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>9.118229</v>
+        <v>9.1182289999999995</v>
       </c>
       <c r="AB5" s="1">
-        <v>1351.570000</v>
+        <v>1351.57</v>
       </c>
       <c r="AC5" s="1">
-        <v>-169.438000</v>
+        <v>-169.43799999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>32836.178767</v>
+        <v>32836.178766999998</v>
       </c>
       <c r="AF5" s="1">
-        <v>9.121161</v>
+        <v>9.1211610000000007</v>
       </c>
       <c r="AG5" s="1">
-        <v>1364.840000</v>
+        <v>1364.84</v>
       </c>
       <c r="AH5" s="1">
-        <v>-179.124000</v>
+        <v>-179.124</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>32846.330383</v>
       </c>
       <c r="AK5" s="1">
-        <v>9.123981</v>
+        <v>9.1239810000000006</v>
       </c>
       <c r="AL5" s="1">
-        <v>1385.830000</v>
+        <v>1385.83</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.033000</v>
+        <v>-209.03299999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>32856.946259</v>
+        <v>32856.946258999997</v>
       </c>
       <c r="AP5" s="1">
-        <v>9.126930</v>
+        <v>9.1269299999999998</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1407.550000</v>
+        <v>1407.55</v>
       </c>
       <c r="AR5" s="1">
-        <v>-252.797000</v>
+        <v>-252.797</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>32867.686131</v>
+        <v>32867.686131000002</v>
       </c>
       <c r="AU5" s="1">
-        <v>9.129913</v>
+        <v>9.1299130000000002</v>
       </c>
       <c r="AV5" s="1">
-        <v>1432.110000</v>
+        <v>1432.11</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.819000</v>
+        <v>-312.81900000000002</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>32877.986549</v>
+        <v>32877.986549000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>9.132774</v>
+        <v>9.1327739999999995</v>
       </c>
       <c r="BA5" s="1">
-        <v>1451.370000</v>
+        <v>1451.37</v>
       </c>
       <c r="BB5" s="1">
-        <v>-365.045000</v>
+        <v>-365.04500000000002</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>32888.607881</v>
+        <v>32888.607881000004</v>
       </c>
       <c r="BE5" s="1">
-        <v>9.135724</v>
+        <v>9.1357239999999997</v>
       </c>
       <c r="BF5" s="1">
-        <v>1536.140000</v>
+        <v>1536.14</v>
       </c>
       <c r="BG5" s="1">
-        <v>-614.083000</v>
+        <v>-614.08299999999997</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>32899.273851</v>
+        <v>32899.273850999998</v>
       </c>
       <c r="BJ5" s="1">
-        <v>9.138687</v>
+        <v>9.1386869999999991</v>
       </c>
       <c r="BK5" s="1">
-        <v>1689.750000</v>
+        <v>1689.75</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1061.330000</v>
+        <v>-1061.33</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>32910.475541</v>
       </c>
       <c r="BO5" s="1">
-        <v>9.141799</v>
+        <v>9.1417990000000007</v>
       </c>
       <c r="BP5" s="1">
-        <v>1982.740000</v>
+        <v>1982.74</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1837.650000</v>
+        <v>-1837.65</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>32920.921282</v>
+        <v>32920.921282000003</v>
       </c>
       <c r="BT5" s="1">
-        <v>9.144700</v>
+        <v>9.1447000000000003</v>
       </c>
       <c r="BU5" s="1">
-        <v>2367.360000</v>
+        <v>2367.36</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2733.010000</v>
+        <v>-2733.01</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>32931.682976</v>
+        <v>32931.682975999996</v>
       </c>
       <c r="BY5" s="1">
-        <v>9.147690</v>
+        <v>9.1476900000000008</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2850.290000</v>
+        <v>2850.29</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3717.490000</v>
+        <v>-3717.49</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>32942.859296</v>
+        <v>32942.859296000002</v>
       </c>
       <c r="CD5" s="1">
-        <v>9.150794</v>
+        <v>9.1507939999999994</v>
       </c>
       <c r="CE5" s="1">
-        <v>4260.590000</v>
+        <v>4260.59</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6084.510000</v>
+        <v>-6084.51</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>32773.471553</v>
+        <v>32773.471553000003</v>
       </c>
       <c r="B6" s="1">
-        <v>9.103742</v>
+        <v>9.1037420000000004</v>
       </c>
       <c r="C6" s="1">
-        <v>1241.870000</v>
+        <v>1241.8699999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-293.013000</v>
+        <v>-293.01299999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>32784.371634</v>
+        <v>32784.371634000003</v>
       </c>
       <c r="G6" s="1">
-        <v>9.106770</v>
+        <v>9.1067699999999991</v>
       </c>
       <c r="H6" s="1">
-        <v>1266.750000</v>
+        <v>1266.75</v>
       </c>
       <c r="I6" s="1">
-        <v>-256.029000</v>
+        <v>-256.029</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>32794.816390</v>
+        <v>32794.81639</v>
       </c>
       <c r="L6" s="1">
-        <v>9.109671</v>
+        <v>9.1096710000000005</v>
       </c>
       <c r="M6" s="1">
-        <v>1305.250000</v>
+        <v>1305.25</v>
       </c>
       <c r="N6" s="1">
-        <v>-200.526000</v>
+        <v>-200.52600000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>32805.318182</v>
+        <v>32805.318182000003</v>
       </c>
       <c r="Q6" s="1">
-        <v>9.112588</v>
+        <v>9.1125880000000006</v>
       </c>
       <c r="R6" s="1">
-        <v>1318.600000</v>
+        <v>1318.6</v>
       </c>
       <c r="S6" s="1">
-        <v>-183.975000</v>
+        <v>-183.97499999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>32815.868586</v>
+        <v>32815.868585999997</v>
       </c>
       <c r="V6" s="1">
-        <v>9.115519</v>
+        <v>9.1155190000000008</v>
       </c>
       <c r="W6" s="1">
-        <v>1333.120000</v>
+        <v>1333.12</v>
       </c>
       <c r="X6" s="1">
-        <v>-171.342000</v>
+        <v>-171.34200000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>32825.973617</v>
+        <v>32825.973617000003</v>
       </c>
       <c r="AA6" s="1">
-        <v>9.118326</v>
+        <v>9.1183259999999997</v>
       </c>
       <c r="AB6" s="1">
-        <v>1351.490000</v>
+        <v>1351.49</v>
       </c>
       <c r="AC6" s="1">
-        <v>-169.430000</v>
+        <v>-169.43</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>32836.521039</v>
+        <v>32836.521038999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>9.121256</v>
+        <v>9.1212560000000007</v>
       </c>
       <c r="AG6" s="1">
-        <v>1364.840000</v>
+        <v>1364.84</v>
       </c>
       <c r="AH6" s="1">
-        <v>-179.157000</v>
+        <v>-179.15700000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>32846.742064</v>
+        <v>32846.742063999998</v>
       </c>
       <c r="AK6" s="1">
-        <v>9.124095</v>
+        <v>9.1240950000000005</v>
       </c>
       <c r="AL6" s="1">
-        <v>1385.830000</v>
+        <v>1385.83</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.014000</v>
+        <v>-209.01400000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>32857.361906</v>
+        <v>32857.361905999998</v>
       </c>
       <c r="AP6" s="1">
-        <v>9.127045</v>
+        <v>9.1270450000000007</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1407.570000</v>
+        <v>1407.57</v>
       </c>
       <c r="AR6" s="1">
-        <v>-252.816000</v>
+        <v>-252.816</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>32867.988693</v>
+        <v>32867.988692999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>9.129997</v>
+        <v>9.1299969999999995</v>
       </c>
       <c r="AV6" s="1">
-        <v>1432.130000</v>
+        <v>1432.13</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.826000</v>
+        <v>-312.82600000000002</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>32878.347174</v>
+        <v>32878.347174000002</v>
       </c>
       <c r="AZ6" s="1">
-        <v>9.132874</v>
+        <v>9.1328739999999993</v>
       </c>
       <c r="BA6" s="1">
-        <v>1451.340000</v>
+        <v>1451.34</v>
       </c>
       <c r="BB6" s="1">
-        <v>-365.024000</v>
+        <v>-365.024</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>32888.968967</v>
+        <v>32888.968967000001</v>
       </c>
       <c r="BE6" s="1">
-        <v>9.135825</v>
+        <v>9.1358250000000005</v>
       </c>
       <c r="BF6" s="1">
-        <v>1536.150000</v>
+        <v>1536.15</v>
       </c>
       <c r="BG6" s="1">
-        <v>-614.103000</v>
+        <v>-614.10299999999995</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>32899.658251</v>
+        <v>32899.658251000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>9.138794</v>
+        <v>9.1387940000000008</v>
       </c>
       <c r="BK6" s="1">
-        <v>1689.640000</v>
+        <v>1689.64</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1061.360000</v>
+        <v>-1061.3599999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>32910.894159</v>
+        <v>32910.894159000003</v>
       </c>
       <c r="BO6" s="1">
-        <v>9.141915</v>
+        <v>9.1419149999999991</v>
       </c>
       <c r="BP6" s="1">
-        <v>1982.660000</v>
+        <v>1982.66</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1837.610000</v>
+        <v>-1837.61</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>32921.352268</v>
+        <v>32921.352268000002</v>
       </c>
       <c r="BT6" s="1">
-        <v>9.144820</v>
+        <v>9.1448199999999993</v>
       </c>
       <c r="BU6" s="1">
-        <v>2367.530000</v>
+        <v>2367.5300000000002</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2732.900000</v>
+        <v>-2732.9</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>32932.101109</v>
+        <v>32932.101109000003</v>
       </c>
       <c r="BY6" s="1">
-        <v>9.147806</v>
+        <v>9.1478059999999992</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2849.850000</v>
+        <v>2849.85</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3717.750000</v>
+        <v>-3717.75</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>32943.378113</v>
+        <v>32943.378112999999</v>
       </c>
       <c r="CD6" s="1">
         <v>9.150938</v>
       </c>
       <c r="CE6" s="1">
-        <v>4256.460000</v>
+        <v>4256.46</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6101.770000</v>
+        <v>-6101.77</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>32774.129124</v>
+        <v>32774.129123999999</v>
       </c>
       <c r="B7" s="1">
-        <v>9.103925</v>
+        <v>9.1039250000000003</v>
       </c>
       <c r="C7" s="1">
-        <v>1241.830000</v>
+        <v>1241.83</v>
       </c>
       <c r="D7" s="1">
-        <v>-293.105000</v>
+        <v>-293.10500000000002</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>32784.749089</v>
+        <v>32784.749088999997</v>
       </c>
       <c r="G7" s="1">
-        <v>9.106875</v>
+        <v>9.1068750000000005</v>
       </c>
       <c r="H7" s="1">
-        <v>1267.720000</v>
+        <v>1267.72</v>
       </c>
       <c r="I7" s="1">
-        <v>-257.011000</v>
+        <v>-257.01100000000002</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>32795.161641</v>
+        <v>32795.161640999999</v>
       </c>
       <c r="L7" s="1">
-        <v>9.109767</v>
+        <v>9.1097669999999997</v>
       </c>
       <c r="M7" s="1">
-        <v>1305.620000</v>
+        <v>1305.6199999999999</v>
       </c>
       <c r="N7" s="1">
-        <v>-200.576000</v>
+        <v>-200.57599999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>32805.669349</v>
+        <v>32805.669349000003</v>
       </c>
       <c r="Q7" s="1">
-        <v>9.112686</v>
+        <v>9.1126860000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>1318.630000</v>
+        <v>1318.63</v>
       </c>
       <c r="S7" s="1">
-        <v>-183.889000</v>
+        <v>-183.88900000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>32816.216777</v>
+        <v>32816.216777000001</v>
       </c>
       <c r="V7" s="1">
-        <v>9.115616</v>
+        <v>9.1156159999999993</v>
       </c>
       <c r="W7" s="1">
-        <v>1333.090000</v>
+        <v>1333.09</v>
       </c>
       <c r="X7" s="1">
-        <v>-171.258000</v>
+        <v>-171.25800000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>32826.389722</v>
       </c>
       <c r="AA7" s="1">
-        <v>9.118442</v>
+        <v>9.1184419999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>1351.080000</v>
+        <v>1351.08</v>
       </c>
       <c r="AC7" s="1">
-        <v>-169.157000</v>
+        <v>-169.15700000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>32836.936156</v>
+        <v>32836.936156000003</v>
       </c>
       <c r="AF7" s="1">
-        <v>9.121371</v>
+        <v>9.1213709999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>1364.880000</v>
+        <v>1364.88</v>
       </c>
       <c r="AH7" s="1">
-        <v>-179.151000</v>
+        <v>-179.15100000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>32847.036719</v>
+        <v>32847.036719000003</v>
       </c>
       <c r="AK7" s="1">
-        <v>9.124177</v>
+        <v>9.1241769999999995</v>
       </c>
       <c r="AL7" s="1">
-        <v>1385.800000</v>
+        <v>1385.8</v>
       </c>
       <c r="AM7" s="1">
-        <v>-208.987000</v>
+        <v>-208.98699999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>32857.670913</v>
+        <v>32857.670913000002</v>
       </c>
       <c r="AP7" s="1">
-        <v>9.127131</v>
+        <v>9.1271310000000003</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1407.580000</v>
+        <v>1407.58</v>
       </c>
       <c r="AR7" s="1">
-        <v>-252.791000</v>
+        <v>-252.791</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>32868.351789</v>
       </c>
       <c r="AU7" s="1">
-        <v>9.130098</v>
+        <v>9.1300980000000003</v>
       </c>
       <c r="AV7" s="1">
-        <v>1432.110000</v>
+        <v>1432.11</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.819000</v>
+        <v>-312.81900000000002</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>32878.705785</v>
+        <v>32878.705784999998</v>
       </c>
       <c r="AZ7" s="1">
-        <v>9.132974</v>
+        <v>9.1329740000000008</v>
       </c>
       <c r="BA7" s="1">
-        <v>1451.360000</v>
+        <v>1451.36</v>
       </c>
       <c r="BB7" s="1">
-        <v>-365.005000</v>
+        <v>-365.005</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>32889.332534</v>
+        <v>32889.332534000001</v>
       </c>
       <c r="BE7" s="1">
-        <v>9.135926</v>
+        <v>9.1359259999999995</v>
       </c>
       <c r="BF7" s="1">
-        <v>1536.180000</v>
+        <v>1536.18</v>
       </c>
       <c r="BG7" s="1">
-        <v>-614.135000</v>
+        <v>-614.13499999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>32900.422125</v>
+        <v>32900.422124999997</v>
       </c>
       <c r="BJ7" s="1">
-        <v>9.139006</v>
+        <v>9.1390060000000002</v>
       </c>
       <c r="BK7" s="1">
-        <v>1689.660000</v>
+        <v>1689.66</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1061.330000</v>
+        <v>-1061.33</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>32911.294922</v>
+        <v>32911.294922000001</v>
       </c>
       <c r="BO7" s="1">
-        <v>9.142026</v>
+        <v>9.1420259999999995</v>
       </c>
       <c r="BP7" s="1">
-        <v>1982.680000</v>
+        <v>1982.68</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1837.480000</v>
+        <v>-1837.48</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>32921.781839</v>
+        <v>32921.781839000003</v>
       </c>
       <c r="BT7" s="1">
-        <v>9.144939</v>
+        <v>9.1449390000000008</v>
       </c>
       <c r="BU7" s="1">
-        <v>2367.300000</v>
+        <v>2367.3000000000002</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2732.710000</v>
+        <v>-2732.71</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>32932.528622</v>
+        <v>32932.528621999998</v>
       </c>
       <c r="BY7" s="1">
-        <v>9.147925</v>
+        <v>9.1479250000000008</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2850.250000</v>
+        <v>2850.25</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3717.910000</v>
+        <v>-3717.91</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>32944.211391</v>
+        <v>32944.211390999997</v>
       </c>
       <c r="CD7" s="1">
-        <v>9.151170</v>
+        <v>9.1511700000000005</v>
       </c>
       <c r="CE7" s="1">
-        <v>4274.200000</v>
+        <v>4274.2</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6104.040000</v>
+        <v>-6104.04</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>32774.498271</v>
+        <v>32774.498270999997</v>
       </c>
       <c r="B8" s="1">
-        <v>9.104027</v>
+        <v>9.1040270000000003</v>
       </c>
       <c r="C8" s="1">
-        <v>1241.730000</v>
+        <v>1241.73</v>
       </c>
       <c r="D8" s="1">
-        <v>-293.038000</v>
+        <v>-293.03800000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>32785.091856</v>
+        <v>32785.091855999999</v>
       </c>
       <c r="G8" s="1">
-        <v>9.106970</v>
+        <v>9.1069700000000005</v>
       </c>
       <c r="H8" s="1">
-        <v>1267.030000</v>
+        <v>1267.03</v>
       </c>
       <c r="I8" s="1">
-        <v>-256.871000</v>
+        <v>-256.87099999999998</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>32795.507315</v>
+        <v>32795.507315000003</v>
       </c>
       <c r="L8" s="1">
-        <v>9.109863</v>
+        <v>9.1098630000000007</v>
       </c>
       <c r="M8" s="1">
-        <v>1305.430000</v>
+        <v>1305.43</v>
       </c>
       <c r="N8" s="1">
-        <v>-200.594000</v>
+        <v>-200.59399999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>32806.016550</v>
+        <v>32806.01655</v>
       </c>
       <c r="Q8" s="1">
-        <v>9.112782</v>
+        <v>9.1127819999999993</v>
       </c>
       <c r="R8" s="1">
-        <v>1318.710000</v>
+        <v>1318.71</v>
       </c>
       <c r="S8" s="1">
-        <v>-183.943000</v>
+        <v>-183.94300000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>32816.632455</v>
+        <v>32816.632454999999</v>
       </c>
       <c r="V8" s="1">
-        <v>9.115731</v>
+        <v>9.1157310000000003</v>
       </c>
       <c r="W8" s="1">
-        <v>1333.070000</v>
+        <v>1333.07</v>
       </c>
       <c r="X8" s="1">
-        <v>-171.172000</v>
+        <v>-171.172</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>32826.672474</v>
+        <v>32826.672473999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>9.118520</v>
+        <v>9.1185200000000002</v>
       </c>
       <c r="AB8" s="1">
-        <v>1351.540000</v>
+        <v>1351.54</v>
       </c>
       <c r="AC8" s="1">
-        <v>-169.291000</v>
+        <v>-169.291</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>32837.210445</v>
+        <v>32837.210444999997</v>
       </c>
       <c r="AF8" s="1">
-        <v>9.121447</v>
+        <v>9.1214469999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>1364.840000</v>
+        <v>1364.84</v>
       </c>
       <c r="AH8" s="1">
-        <v>-179.172000</v>
+        <v>-179.172</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>32847.382895</v>
+        <v>32847.382895000002</v>
       </c>
       <c r="AK8" s="1">
-        <v>9.124273</v>
+        <v>9.1242730000000005</v>
       </c>
       <c r="AL8" s="1">
-        <v>1385.780000</v>
+        <v>1385.78</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.021000</v>
+        <v>-209.02099999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>32858.030051</v>
+        <v>32858.030051000002</v>
       </c>
       <c r="AP8" s="1">
-        <v>9.127231</v>
+        <v>9.1272310000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1407.540000</v>
+        <v>1407.54</v>
       </c>
       <c r="AR8" s="1">
-        <v>-252.788000</v>
+        <v>-252.78800000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>32868.717348</v>
+        <v>32868.717347999998</v>
       </c>
       <c r="AU8" s="1">
-        <v>9.130199</v>
+        <v>9.1301989999999993</v>
       </c>
       <c r="AV8" s="1">
-        <v>1432.100000</v>
+        <v>1432.1</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.825000</v>
+        <v>-312.82499999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>32879.429444</v>
+        <v>32879.429444000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>9.133175</v>
+        <v>9.1331749999999996</v>
       </c>
       <c r="BA8" s="1">
-        <v>1451.340000</v>
+        <v>1451.34</v>
       </c>
       <c r="BB8" s="1">
-        <v>-365.050000</v>
+        <v>-365.05</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>32890.053755</v>
+        <v>32890.053755000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>9.136126</v>
+        <v>9.1361260000000009</v>
       </c>
       <c r="BF8" s="1">
-        <v>1536.160000</v>
+        <v>1536.16</v>
       </c>
       <c r="BG8" s="1">
-        <v>-614.074000</v>
+        <v>-614.07399999999996</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>32900.796103</v>
+        <v>32900.796103000001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>9.139110</v>
+        <v>9.1391100000000005</v>
       </c>
       <c r="BK8" s="1">
-        <v>1689.730000</v>
+        <v>1689.73</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1061.320000</v>
+        <v>-1061.32</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>32911.714507</v>
+        <v>32911.714506999997</v>
       </c>
       <c r="BO8" s="1">
-        <v>9.142143</v>
+        <v>9.1421430000000008</v>
       </c>
       <c r="BP8" s="1">
-        <v>1982.610000</v>
+        <v>1982.61</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1837.610000</v>
+        <v>-1837.61</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>32922.190507</v>
+        <v>32922.190506999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>9.145053</v>
+        <v>9.1450530000000008</v>
       </c>
       <c r="BU8" s="1">
-        <v>2367.520000</v>
+        <v>2367.52</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2733.010000</v>
+        <v>-2733.01</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>32933.253808</v>
+        <v>32933.253808000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>9.148126</v>
+        <v>9.1481259999999995</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2850.100000</v>
+        <v>2850.1</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3718.250000</v>
+        <v>-3718.25</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>32944.413944</v>
       </c>
       <c r="CD8" s="1">
-        <v>9.151226</v>
+        <v>9.1512259999999994</v>
       </c>
       <c r="CE8" s="1">
-        <v>4274.460000</v>
+        <v>4274.46</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6086.070000</v>
+        <v>-6086.07</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>32774.837536</v>
+        <v>32774.837535999999</v>
       </c>
       <c r="B9" s="1">
-        <v>9.104122</v>
+        <v>9.1041220000000003</v>
       </c>
       <c r="C9" s="1">
-        <v>1241.770000</v>
+        <v>1241.77</v>
       </c>
       <c r="D9" s="1">
-        <v>-293.145000</v>
+        <v>-293.14499999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>32785.436048</v>
+        <v>32785.436048000003</v>
       </c>
       <c r="G9" s="1">
-        <v>9.107066</v>
+        <v>9.1070659999999997</v>
       </c>
       <c r="H9" s="1">
-        <v>1267.160000</v>
+        <v>1267.1600000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-256.982000</v>
+        <v>-256.98200000000003</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>32795.929906</v>
+        <v>32795.929905999998</v>
       </c>
       <c r="L9" s="1">
-        <v>9.109981</v>
+        <v>9.1099809999999994</v>
       </c>
       <c r="M9" s="1">
-        <v>1305.520000</v>
+        <v>1305.52</v>
       </c>
       <c r="N9" s="1">
-        <v>-200.608000</v>
+        <v>-200.608</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>32806.438148</v>
+        <v>32806.438148000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>9.112899</v>
+        <v>9.1128990000000005</v>
       </c>
       <c r="R9" s="1">
-        <v>1318.690000</v>
+        <v>1318.69</v>
       </c>
       <c r="S9" s="1">
-        <v>-184.012000</v>
+        <v>-184.012</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>32816.909689</v>
       </c>
       <c r="V9" s="1">
-        <v>9.115808</v>
+        <v>9.1158079999999995</v>
       </c>
       <c r="W9" s="1">
-        <v>1333.110000</v>
+        <v>1333.11</v>
       </c>
       <c r="X9" s="1">
-        <v>-171.238000</v>
+        <v>-171.238</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>32827.017697</v>
+        <v>32827.017697000003</v>
       </c>
       <c r="AA9" s="1">
-        <v>9.118616</v>
+        <v>9.1186159999999994</v>
       </c>
       <c r="AB9" s="1">
-        <v>1351.450000</v>
+        <v>1351.45</v>
       </c>
       <c r="AC9" s="1">
-        <v>-169.465000</v>
+        <v>-169.465</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>32837.552220</v>
+        <v>32837.552219999998</v>
       </c>
       <c r="AF9" s="1">
-        <v>9.121542</v>
+        <v>9.1215419999999998</v>
       </c>
       <c r="AG9" s="1">
-        <v>1364.850000</v>
+        <v>1364.85</v>
       </c>
       <c r="AH9" s="1">
-        <v>-179.152000</v>
+        <v>-179.15199999999999</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>32847.733594</v>
+        <v>32847.733593999998</v>
       </c>
       <c r="AK9" s="1">
-        <v>9.124370</v>
+        <v>9.1243700000000008</v>
       </c>
       <c r="AL9" s="1">
-        <v>1385.790000</v>
+        <v>1385.79</v>
       </c>
       <c r="AM9" s="1">
-        <v>-208.992000</v>
+        <v>-208.99199999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>32858.706565</v>
       </c>
       <c r="AP9" s="1">
-        <v>9.127418</v>
+        <v>9.1274180000000005</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1407.550000</v>
+        <v>1407.55</v>
       </c>
       <c r="AR9" s="1">
-        <v>-252.842000</v>
+        <v>-252.84200000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>32869.446434</v>
+        <v>32869.446433999998</v>
       </c>
       <c r="AU9" s="1">
-        <v>9.130402</v>
+        <v>9.1304020000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1432.080000</v>
+        <v>1432.08</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.803000</v>
+        <v>-312.803</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>32879.803892</v>
+        <v>32879.803892000004</v>
       </c>
       <c r="AZ9" s="1">
-        <v>9.133279</v>
+        <v>9.1332789999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1451.350000</v>
+        <v>1451.35</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.979000</v>
+        <v>-364.97899999999998</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>32890.412821</v>
+        <v>32890.412820999998</v>
       </c>
       <c r="BE9" s="1">
-        <v>9.136226</v>
+        <v>9.1362260000000006</v>
       </c>
       <c r="BF9" s="1">
-        <v>1536.170000</v>
+        <v>1536.17</v>
       </c>
       <c r="BG9" s="1">
-        <v>-614.133000</v>
+        <v>-614.13300000000004</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>32901.171545</v>
+        <v>32901.171544999997</v>
       </c>
       <c r="BJ9" s="1">
-        <v>9.139214</v>
+        <v>9.1392140000000008</v>
       </c>
       <c r="BK9" s="1">
-        <v>1689.740000</v>
+        <v>1689.74</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1061.310000</v>
+        <v>-1061.31</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>32912.410394</v>
+        <v>32912.410393999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>9.142336</v>
+        <v>9.1423360000000002</v>
       </c>
       <c r="BP9" s="1">
-        <v>1982.670000</v>
+        <v>1982.67</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1837.480000</v>
+        <v>-1837.48</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>32922.929546</v>
+        <v>32922.929545999999</v>
       </c>
       <c r="BT9" s="1">
-        <v>9.145258</v>
+        <v>9.1452580000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>2367.650000</v>
+        <v>2367.65</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2732.710000</v>
+        <v>-2732.71</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>32933.392653</v>
+        <v>32933.392653000003</v>
       </c>
       <c r="BY9" s="1">
-        <v>9.148165</v>
+        <v>9.1481650000000005</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2849.900000</v>
+        <v>2849.9</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3716.840000</v>
+        <v>-3716.84</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>32944.930589</v>
+        <v>32944.930589000003</v>
       </c>
       <c r="CD9" s="1">
-        <v>9.151370</v>
+        <v>9.15137</v>
       </c>
       <c r="CE9" s="1">
-        <v>4257.040000</v>
+        <v>4257.04</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6089.580000</v>
+        <v>-6089.58</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>32775.258637</v>
+        <v>32775.258636999999</v>
       </c>
       <c r="B10" s="1">
-        <v>9.104239</v>
+        <v>9.1042389999999997</v>
       </c>
       <c r="C10" s="1">
-        <v>1241.810000</v>
+        <v>1241.81</v>
       </c>
       <c r="D10" s="1">
-        <v>-292.996000</v>
+        <v>-292.99599999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>32785.859664</v>
+        <v>32785.859664000003</v>
       </c>
       <c r="G10" s="1">
-        <v>9.107183</v>
+        <v>9.1071829999999991</v>
       </c>
       <c r="H10" s="1">
-        <v>1267.880000</v>
+        <v>1267.8800000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-256.522000</v>
+        <v>-256.52199999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>32796.211666</v>
+        <v>32796.211666000003</v>
       </c>
       <c r="L10" s="1">
-        <v>9.110059</v>
+        <v>9.1100589999999997</v>
       </c>
       <c r="M10" s="1">
-        <v>1305.500000</v>
+        <v>1305.5</v>
       </c>
       <c r="N10" s="1">
-        <v>-200.657000</v>
+        <v>-200.65700000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>32806.708965</v>
+        <v>32806.708964999998</v>
       </c>
       <c r="Q10" s="1">
-        <v>9.112975</v>
+        <v>9.1129750000000005</v>
       </c>
       <c r="R10" s="1">
-        <v>1318.690000</v>
+        <v>1318.69</v>
       </c>
       <c r="S10" s="1">
-        <v>-184.012000</v>
+        <v>-184.012</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>32817.255398</v>
+        <v>32817.255398000001</v>
       </c>
       <c r="V10" s="1">
-        <v>9.115904</v>
+        <v>9.1159040000000005</v>
       </c>
       <c r="W10" s="1">
-        <v>1333.190000</v>
+        <v>1333.19</v>
       </c>
       <c r="X10" s="1">
-        <v>-171.236000</v>
+        <v>-171.23599999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>32827.366376</v>
+        <v>32827.366375999998</v>
       </c>
       <c r="AA10" s="1">
-        <v>9.118713</v>
+        <v>9.1187129999999996</v>
       </c>
       <c r="AB10" s="1">
-        <v>1351.480000</v>
+        <v>1351.48</v>
       </c>
       <c r="AC10" s="1">
-        <v>-169.349000</v>
+        <v>-169.34899999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>32837.896907</v>
+        <v>32837.896907000002</v>
       </c>
       <c r="AF10" s="1">
-        <v>9.121638</v>
+        <v>9.1216380000000008</v>
       </c>
       <c r="AG10" s="1">
-        <v>1364.910000</v>
+        <v>1364.91</v>
       </c>
       <c r="AH10" s="1">
-        <v>-179.109000</v>
+        <v>-179.10900000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>32848.429949</v>
+        <v>32848.429948999998</v>
       </c>
       <c r="AK10" s="1">
-        <v>9.124564</v>
+        <v>9.1245639999999995</v>
       </c>
       <c r="AL10" s="1">
-        <v>1385.810000</v>
+        <v>1385.81</v>
       </c>
       <c r="AM10" s="1">
-        <v>-208.998000</v>
+        <v>-208.99799999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>32859.133148</v>
+        <v>32859.133148000001</v>
       </c>
       <c r="AP10" s="1">
-        <v>9.127537</v>
+        <v>9.1275370000000002</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1407.580000</v>
+        <v>1407.58</v>
       </c>
       <c r="AR10" s="1">
-        <v>-252.805000</v>
+        <v>-252.80500000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>32869.835825</v>
+        <v>32869.835825000002</v>
       </c>
       <c r="AU10" s="1">
-        <v>9.130510</v>
+        <v>9.1305099999999992</v>
       </c>
       <c r="AV10" s="1">
-        <v>1432.100000</v>
+        <v>1432.1</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.832000</v>
+        <v>-312.83199999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>32880.183828</v>
+        <v>32880.183828000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>9.133384</v>
+        <v>9.1333839999999995</v>
       </c>
       <c r="BA10" s="1">
-        <v>1451.390000</v>
+        <v>1451.39</v>
       </c>
       <c r="BB10" s="1">
-        <v>-365.031000</v>
+        <v>-365.03100000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>32890.775397</v>
+        <v>32890.775396999998</v>
       </c>
       <c r="BE10" s="1">
-        <v>9.136326</v>
+        <v>9.1363260000000004</v>
       </c>
       <c r="BF10" s="1">
-        <v>1536.170000</v>
+        <v>1536.17</v>
       </c>
       <c r="BG10" s="1">
-        <v>-614.065000</v>
+        <v>-614.06500000000005</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>32901.881814</v>
       </c>
       <c r="BJ10" s="1">
-        <v>9.139412</v>
+        <v>9.1394120000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1689.640000</v>
+        <v>1689.64</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1061.310000</v>
+        <v>-1061.31</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>32912.548777</v>
+        <v>32912.548777000004</v>
       </c>
       <c r="BO10" s="1">
-        <v>9.142375</v>
+        <v>9.1423749999999995</v>
       </c>
       <c r="BP10" s="1">
-        <v>1982.570000</v>
+        <v>1982.57</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1837.480000</v>
+        <v>-1837.48</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>32923.052058</v>
+        <v>32923.052058000001</v>
       </c>
       <c r="BT10" s="1">
-        <v>9.145292</v>
+        <v>9.1452919999999995</v>
       </c>
       <c r="BU10" s="1">
-        <v>2367.560000</v>
+        <v>2367.56</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2732.740000</v>
+        <v>-2732.74</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>32933.814854</v>
+        <v>32933.814853999997</v>
       </c>
       <c r="BY10" s="1">
         <v>9.148282</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2849.450000</v>
+        <v>2849.45</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3717.560000</v>
+        <v>-3717.56</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>32945.451389</v>
+        <v>32945.451389000002</v>
       </c>
       <c r="CD10" s="1">
-        <v>9.151514</v>
+        <v>9.1515140000000006</v>
       </c>
       <c r="CE10" s="1">
-        <v>4264.430000</v>
+        <v>4264.43</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6106.200000</v>
+        <v>-6106.2</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>32775.523037</v>
+        <v>32775.523036999999</v>
       </c>
       <c r="B11" s="1">
-        <v>9.104312</v>
+        <v>9.1043120000000002</v>
       </c>
       <c r="C11" s="1">
-        <v>1241.390000</v>
+        <v>1241.3900000000001</v>
       </c>
       <c r="D11" s="1">
-        <v>-292.598000</v>
+        <v>-292.59800000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>32786.138416</v>
+        <v>32786.138416000002</v>
       </c>
       <c r="G11" s="1">
-        <v>9.107261</v>
+        <v>9.1072609999999994</v>
       </c>
       <c r="H11" s="1">
-        <v>1267.630000</v>
+        <v>1267.6300000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-256.731000</v>
+        <v>-256.73099999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>32796.554402</v>
+        <v>32796.554402000002</v>
       </c>
       <c r="L11" s="1">
-        <v>9.110154</v>
+        <v>9.1101539999999996</v>
       </c>
       <c r="M11" s="1">
-        <v>1305.520000</v>
+        <v>1305.52</v>
       </c>
       <c r="N11" s="1">
-        <v>-201.114000</v>
+        <v>-201.114</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>32807.074516</v>
+        <v>32807.074516000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>9.113076</v>
+        <v>9.1130759999999995</v>
       </c>
       <c r="R11" s="1">
-        <v>1318.580000</v>
+        <v>1318.58</v>
       </c>
       <c r="S11" s="1">
-        <v>-184.017000</v>
+        <v>-184.017</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>32817.597669</v>
+        <v>32817.597669000002</v>
       </c>
       <c r="V11" s="1">
-        <v>9.115999</v>
+        <v>9.1159990000000004</v>
       </c>
       <c r="W11" s="1">
-        <v>1333.040000</v>
+        <v>1333.04</v>
       </c>
       <c r="X11" s="1">
-        <v>-171.239000</v>
+        <v>-171.239</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>32828.064248</v>
+        <v>32828.064248000002</v>
       </c>
       <c r="AA11" s="1">
-        <v>9.118907</v>
+        <v>9.1189070000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1351.620000</v>
+        <v>1351.62</v>
       </c>
       <c r="AC11" s="1">
-        <v>-169.462000</v>
+        <v>-169.46199999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>32838.583401</v>
+        <v>32838.583401000004</v>
       </c>
       <c r="AF11" s="1">
         <v>9.121829</v>
       </c>
       <c r="AG11" s="1">
-        <v>1364.860000</v>
+        <v>1364.86</v>
       </c>
       <c r="AH11" s="1">
-        <v>-179.106000</v>
+        <v>-179.10599999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>32848.779134</v>
+        <v>32848.779133999997</v>
       </c>
       <c r="AK11" s="1">
-        <v>9.124661</v>
+        <v>9.1246609999999997</v>
       </c>
       <c r="AL11" s="1">
-        <v>1385.810000</v>
+        <v>1385.81</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.011000</v>
+        <v>-209.011</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>32859.491765</v>
+        <v>32859.491764999999</v>
       </c>
       <c r="AP11" s="1">
         <v>9.127637</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1407.600000</v>
+        <v>1407.6</v>
       </c>
       <c r="AR11" s="1">
-        <v>-252.825000</v>
+        <v>-252.82499999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>32870.201344</v>
+        <v>32870.201344000001</v>
       </c>
       <c r="AU11" s="1">
         <v>9.130611</v>
       </c>
       <c r="AV11" s="1">
-        <v>1432.090000</v>
+        <v>1432.09</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.812000</v>
+        <v>-312.81200000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>32880.856402</v>
+        <v>32880.856401999998</v>
       </c>
       <c r="AZ11" s="1">
-        <v>9.133571</v>
+        <v>9.1335709999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1451.350000</v>
+        <v>1451.35</v>
       </c>
       <c r="BB11" s="1">
-        <v>-365.064000</v>
+        <v>-365.06400000000002</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>32891.456900</v>
+        <v>32891.456899999997</v>
       </c>
       <c r="BE11" s="1">
-        <v>9.136516</v>
+        <v>9.1365160000000003</v>
       </c>
       <c r="BF11" s="1">
-        <v>1536.140000</v>
+        <v>1536.14</v>
       </c>
       <c r="BG11" s="1">
-        <v>-614.051000</v>
+        <v>-614.05100000000004</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>32902.321302</v>
+        <v>32902.321301999997</v>
       </c>
       <c r="BJ11" s="1">
-        <v>9.139534</v>
+        <v>9.1395339999999994</v>
       </c>
       <c r="BK11" s="1">
-        <v>1689.620000</v>
+        <v>1689.62</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1061.270000</v>
+        <v>-1061.27</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>32912.957021</v>
+        <v>32912.957021000002</v>
       </c>
       <c r="BO11" s="1">
-        <v>9.142488</v>
+        <v>9.1424880000000002</v>
       </c>
       <c r="BP11" s="1">
-        <v>1982.510000</v>
+        <v>1982.51</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1837.500000</v>
+        <v>-1837.5</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>32923.461290</v>
+        <v>32923.461289999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>9.145406</v>
+        <v>9.1454059999999995</v>
       </c>
       <c r="BU11" s="1">
-        <v>2367.540000</v>
+        <v>2367.54</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2732.660000</v>
+        <v>-2732.66</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>32934.240347</v>
+        <v>32934.240346999999</v>
       </c>
       <c r="BY11" s="1">
-        <v>9.148400</v>
+        <v>9.1484000000000005</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2849.890000</v>
+        <v>2849.89</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3717.680000</v>
+        <v>-3717.68</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>32945.969212</v>
+        <v>32945.969212000004</v>
       </c>
       <c r="CD11" s="1">
-        <v>9.151658</v>
+        <v>9.1516579999999994</v>
       </c>
       <c r="CE11" s="1">
-        <v>4255.600000</v>
+        <v>4255.6000000000004</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6098.050000</v>
+        <v>-6098.05</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>32775.866734</v>
+        <v>32775.866734000003</v>
       </c>
       <c r="B12" s="1">
-        <v>9.104407</v>
+        <v>9.1044070000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>1241.490000</v>
+        <v>1241.49</v>
       </c>
       <c r="D12" s="1">
-        <v>-292.978000</v>
+        <v>-292.97800000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>32786.483600</v>
+        <v>32786.4836</v>
       </c>
       <c r="G12" s="1">
-        <v>9.107357</v>
+        <v>9.1073570000000004</v>
       </c>
       <c r="H12" s="1">
-        <v>1267.410000</v>
+        <v>1267.4100000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-256.668000</v>
+        <v>-256.66800000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>32796.899119</v>
+        <v>32796.899119000002</v>
       </c>
       <c r="L12" s="1">
-        <v>9.110250</v>
+        <v>9.1102500000000006</v>
       </c>
       <c r="M12" s="1">
-        <v>1305.480000</v>
+        <v>1305.48</v>
       </c>
       <c r="N12" s="1">
-        <v>-200.529000</v>
+        <v>-200.529</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>32807.423203</v>
+        <v>32807.423202999998</v>
       </c>
       <c r="Q12" s="1">
-        <v>9.113173</v>
+        <v>9.1131729999999997</v>
       </c>
       <c r="R12" s="1">
-        <v>1318.550000</v>
+        <v>1318.55</v>
       </c>
       <c r="S12" s="1">
-        <v>-183.901000</v>
+        <v>-183.90100000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>32818.284102</v>
+        <v>32818.284101999998</v>
       </c>
       <c r="V12" s="1">
-        <v>9.116190</v>
+        <v>9.1161899999999996</v>
       </c>
       <c r="W12" s="1">
-        <v>1333.000000</v>
+        <v>1333</v>
       </c>
       <c r="X12" s="1">
-        <v>-171.246000</v>
+        <v>-171.24600000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>32828.414423</v>
+        <v>32828.414423000002</v>
       </c>
       <c r="AA12" s="1">
-        <v>9.119004</v>
+        <v>9.1190040000000003</v>
       </c>
       <c r="AB12" s="1">
-        <v>1351.400000</v>
+        <v>1351.4</v>
       </c>
       <c r="AC12" s="1">
-        <v>-169.422000</v>
+        <v>-169.422</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>32838.927097</v>
       </c>
       <c r="AF12" s="1">
-        <v>9.121924</v>
+        <v>9.1219239999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1364.890000</v>
+        <v>1364.89</v>
       </c>
       <c r="AH12" s="1">
-        <v>-179.190000</v>
+        <v>-179.19</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>32849.130300</v>
+        <v>32849.130299999997</v>
       </c>
       <c r="AK12" s="1">
-        <v>9.124758</v>
+        <v>9.1247579999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1385.800000</v>
+        <v>1385.8</v>
       </c>
       <c r="AM12" s="1">
-        <v>-208.999000</v>
+        <v>-208.999</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>32860.165789</v>
+        <v>32860.165788999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>9.127824</v>
+        <v>9.1278240000000004</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1407.500000</v>
+        <v>1407.5</v>
       </c>
       <c r="AR12" s="1">
-        <v>-252.808000</v>
+        <v>-252.80799999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>32870.880899</v>
+        <v>32870.880899000003</v>
       </c>
       <c r="AU12" s="1">
-        <v>9.130800</v>
+        <v>9.1308000000000007</v>
       </c>
       <c r="AV12" s="1">
-        <v>1432.130000</v>
+        <v>1432.13</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.785000</v>
+        <v>-312.78500000000003</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>32881.257667</v>
+        <v>32881.257666999998</v>
       </c>
       <c r="AZ12" s="1">
-        <v>9.133683</v>
+        <v>9.1336829999999996</v>
       </c>
       <c r="BA12" s="1">
-        <v>1451.320000</v>
+        <v>1451.32</v>
       </c>
       <c r="BB12" s="1">
-        <v>-365.039000</v>
+        <v>-365.03899999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>32891.883957</v>
+        <v>32891.883956999998</v>
       </c>
       <c r="BE12" s="1">
-        <v>9.136634</v>
+        <v>9.1366340000000008</v>
       </c>
       <c r="BF12" s="1">
-        <v>1536.170000</v>
+        <v>1536.17</v>
       </c>
       <c r="BG12" s="1">
-        <v>-614.074000</v>
+        <v>-614.07399999999996</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>32902.726038</v>
+        <v>32902.726038000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>9.139646</v>
+        <v>9.1396460000000008</v>
       </c>
       <c r="BK12" s="1">
-        <v>1689.670000</v>
+        <v>1689.67</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1061.330000</v>
+        <v>-1061.33</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>32913.353324</v>
+        <v>32913.353324000003</v>
       </c>
       <c r="BO12" s="1">
-        <v>9.142598</v>
+        <v>9.1425979999999996</v>
       </c>
       <c r="BP12" s="1">
-        <v>1982.490000</v>
+        <v>1982.49</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1837.550000</v>
+        <v>-1837.55</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>32923.896249</v>
+        <v>32923.896248999998</v>
       </c>
       <c r="BT12" s="1">
-        <v>9.145527</v>
+        <v>9.1455269999999995</v>
       </c>
       <c r="BU12" s="1">
-        <v>2367.960000</v>
+        <v>2367.96</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2732.910000</v>
+        <v>-2732.91</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>32934.657453</v>
       </c>
       <c r="BY12" s="1">
-        <v>9.148516</v>
+        <v>9.1485160000000008</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2849.850000</v>
+        <v>2849.85</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3717.950000</v>
+        <v>-3717.95</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>32946.520267</v>
       </c>
       <c r="CD12" s="1">
-        <v>9.151811</v>
+        <v>9.1518110000000004</v>
       </c>
       <c r="CE12" s="1">
-        <v>4258.220000</v>
+        <v>4258.22</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6086.050000</v>
+        <v>-6086.05</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>32776.209468</v>
+        <v>32776.209468000001</v>
       </c>
       <c r="B13" s="1">
-        <v>9.104503</v>
+        <v>9.1045029999999993</v>
       </c>
       <c r="C13" s="1">
-        <v>1241.880000</v>
+        <v>1241.8800000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-292.765000</v>
+        <v>-292.76499999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>32786.828848</v>
+        <v>32786.828847999997</v>
       </c>
       <c r="G13" s="1">
-        <v>9.107452</v>
+        <v>9.1074520000000003</v>
       </c>
       <c r="H13" s="1">
-        <v>1267.410000</v>
+        <v>1267.4100000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-257.194000</v>
+        <v>-257.19400000000002</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>32797.590514</v>
+        <v>32797.590514000003</v>
       </c>
       <c r="L13" s="1">
-        <v>9.110442</v>
+        <v>9.1104420000000008</v>
       </c>
       <c r="M13" s="1">
-        <v>1305.600000</v>
+        <v>1305.5999999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-200.490000</v>
+        <v>-200.49</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>32808.121584</v>
       </c>
       <c r="Q13" s="1">
-        <v>9.113367</v>
+        <v>9.1133670000000002</v>
       </c>
       <c r="R13" s="1">
-        <v>1318.660000</v>
+        <v>1318.66</v>
       </c>
       <c r="S13" s="1">
-        <v>-183.912000</v>
+        <v>-183.91200000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>32818.628365</v>
+        <v>32818.628364999997</v>
       </c>
       <c r="V13" s="1">
-        <v>9.116286</v>
+        <v>9.1162860000000006</v>
       </c>
       <c r="W13" s="1">
-        <v>1333.130000</v>
+        <v>1333.13</v>
       </c>
       <c r="X13" s="1">
-        <v>-171.194000</v>
+        <v>-171.19399999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>32828.764604</v>
+        <v>32828.764604000004</v>
       </c>
       <c r="AA13" s="1">
-        <v>9.119101</v>
+        <v>9.1191010000000006</v>
       </c>
       <c r="AB13" s="1">
-        <v>1351.360000</v>
+        <v>1351.36</v>
       </c>
       <c r="AC13" s="1">
-        <v>-169.453000</v>
+        <v>-169.453</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>32839.270825</v>
       </c>
       <c r="AF13" s="1">
-        <v>9.122020</v>
+        <v>9.1220199999999991</v>
       </c>
       <c r="AG13" s="1">
-        <v>1364.870000</v>
+        <v>1364.87</v>
       </c>
       <c r="AH13" s="1">
-        <v>-179.168000</v>
+        <v>-179.16800000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>32849.787004</v>
+        <v>32849.787003999998</v>
       </c>
       <c r="AK13" s="1">
-        <v>9.124941</v>
+        <v>9.1249409999999997</v>
       </c>
       <c r="AL13" s="1">
-        <v>1385.790000</v>
+        <v>1385.79</v>
       </c>
       <c r="AM13" s="1">
-        <v>-208.975000</v>
+        <v>-208.97499999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>32860.571517</v>
+        <v>32860.571516999997</v>
       </c>
       <c r="AP13" s="1">
-        <v>9.127937</v>
+        <v>9.1279369999999993</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1407.570000</v>
+        <v>1407.57</v>
       </c>
       <c r="AR13" s="1">
-        <v>-252.795000</v>
+        <v>-252.79499999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>32871.320595</v>
+        <v>32871.320594999997</v>
       </c>
       <c r="AU13" s="1">
         <v>9.130922</v>
       </c>
       <c r="AV13" s="1">
-        <v>1432.100000</v>
+        <v>1432.1</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.822000</v>
+        <v>-312.822</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>32881.643058</v>
+        <v>32881.643058000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>9.133790</v>
+        <v>9.1337899999999994</v>
       </c>
       <c r="BA13" s="1">
-        <v>1451.350000</v>
+        <v>1451.35</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.970000</v>
+        <v>-364.97</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>32892.248051</v>
+        <v>32892.248051000002</v>
       </c>
       <c r="BE13" s="1">
-        <v>9.136736</v>
+        <v>9.1367360000000009</v>
       </c>
       <c r="BF13" s="1">
-        <v>1536.170000</v>
+        <v>1536.17</v>
       </c>
       <c r="BG13" s="1">
-        <v>-614.046000</v>
+        <v>-614.04600000000005</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>32903.100485</v>
+        <v>32903.100485000003</v>
       </c>
       <c r="BJ13" s="1">
-        <v>9.139750</v>
+        <v>9.1397499999999994</v>
       </c>
       <c r="BK13" s="1">
-        <v>1689.640000</v>
+        <v>1689.64</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1061.270000</v>
+        <v>-1061.27</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>32913.777864</v>
+        <v>32913.777864000003</v>
       </c>
       <c r="BO13" s="1">
-        <v>9.142716</v>
+        <v>9.1427160000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1982.480000</v>
+        <v>1982.48</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1837.520000</v>
+        <v>-1837.52</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>32924.326777</v>
+        <v>32924.326777000002</v>
       </c>
       <c r="BT13" s="1">
-        <v>9.145646</v>
+        <v>9.1456459999999993</v>
       </c>
       <c r="BU13" s="1">
-        <v>2367.870000</v>
+        <v>2367.87</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2732.510000</v>
+        <v>-2732.51</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>32935.102859</v>
+        <v>32935.102858999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>9.148640</v>
+        <v>9.1486400000000003</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2850.100000</v>
+        <v>2850.1</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3717.410000</v>
+        <v>-3717.41</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>32947.052012</v>
       </c>
       <c r="CD13" s="1">
-        <v>9.151959</v>
+        <v>9.1519589999999997</v>
       </c>
       <c r="CE13" s="1">
-        <v>4259.740000</v>
+        <v>4259.74</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6104.630000</v>
+        <v>-6104.63</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>32776.891995</v>
+        <v>32776.891994999998</v>
       </c>
       <c r="B14" s="1">
         <v>9.104692</v>
       </c>
       <c r="C14" s="1">
-        <v>1242.080000</v>
+        <v>1242.08</v>
       </c>
       <c r="D14" s="1">
-        <v>-292.875000</v>
+        <v>-292.875</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>32787.518255</v>
+        <v>32787.518255000003</v>
       </c>
       <c r="G14" s="1">
-        <v>9.107644</v>
+        <v>9.1076440000000005</v>
       </c>
       <c r="H14" s="1">
-        <v>1267.630000</v>
+        <v>1267.6300000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-256.135000</v>
+        <v>-256.13499999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>32797.935269</v>
+        <v>32797.935269000001</v>
       </c>
       <c r="L14" s="1">
         <v>9.110538</v>
       </c>
       <c r="M14" s="1">
-        <v>1305.590000</v>
+        <v>1305.5899999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-200.301000</v>
+        <v>-200.30099999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>32808.469307</v>
+        <v>32808.469306999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>9.113464</v>
+        <v>9.1134640000000005</v>
       </c>
       <c r="R14" s="1">
-        <v>1318.720000</v>
+        <v>1318.72</v>
       </c>
       <c r="S14" s="1">
-        <v>-183.902000</v>
+        <v>-183.90199999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>32818.972549</v>
+        <v>32818.972548999998</v>
       </c>
       <c r="V14" s="1">
-        <v>9.116381</v>
+        <v>9.1163810000000005</v>
       </c>
       <c r="W14" s="1">
-        <v>1333.090000</v>
+        <v>1333.09</v>
       </c>
       <c r="X14" s="1">
-        <v>-171.254000</v>
+        <v>-171.25399999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>32829.418295</v>
+        <v>32829.418295000003</v>
       </c>
       <c r="AA14" s="1">
-        <v>9.119283</v>
+        <v>9.1192829999999994</v>
       </c>
       <c r="AB14" s="1">
-        <v>1351.580000</v>
+        <v>1351.58</v>
       </c>
       <c r="AC14" s="1">
-        <v>-169.490000</v>
+        <v>-169.49</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>32839.927528</v>
       </c>
       <c r="AF14" s="1">
-        <v>9.122202</v>
+        <v>9.1222019999999997</v>
       </c>
       <c r="AG14" s="1">
-        <v>1364.860000</v>
+        <v>1364.86</v>
       </c>
       <c r="AH14" s="1">
-        <v>-179.123000</v>
+        <v>-179.12299999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>32850.177355</v>
       </c>
       <c r="AK14" s="1">
-        <v>9.125049</v>
+        <v>9.1250490000000006</v>
       </c>
       <c r="AL14" s="1">
-        <v>1385.830000</v>
+        <v>1385.83</v>
       </c>
       <c r="AM14" s="1">
-        <v>-208.989000</v>
+        <v>-208.989</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>32860.958924</v>
+        <v>32860.958923999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>9.128044</v>
+        <v>9.1280439999999992</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1407.530000</v>
+        <v>1407.53</v>
       </c>
       <c r="AR14" s="1">
-        <v>-252.832000</v>
+        <v>-252.83199999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>32871.683390</v>
+        <v>32871.683389999998</v>
       </c>
       <c r="AU14" s="1">
-        <v>9.131023</v>
+        <v>9.1310230000000008</v>
       </c>
       <c r="AV14" s="1">
-        <v>1432.130000</v>
+        <v>1432.13</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.808000</v>
+        <v>-312.80799999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>32882.025473</v>
+        <v>32882.025473000002</v>
       </c>
       <c r="AZ14" s="1">
         <v>9.133896</v>
       </c>
       <c r="BA14" s="1">
-        <v>1451.360000</v>
+        <v>1451.36</v>
       </c>
       <c r="BB14" s="1">
-        <v>-365.031000</v>
+        <v>-365.03100000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>32892.663668</v>
+        <v>32892.663668000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>9.136851</v>
+        <v>9.1368510000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1536.180000</v>
+        <v>1536.18</v>
       </c>
       <c r="BG14" s="1">
-        <v>-614.057000</v>
+        <v>-614.05700000000002</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>32903.519637</v>
+        <v>32903.519636999998</v>
       </c>
       <c r="BJ14" s="1">
-        <v>9.139867</v>
+        <v>9.1398670000000006</v>
       </c>
       <c r="BK14" s="1">
-        <v>1689.660000</v>
+        <v>1689.66</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1061.340000</v>
+        <v>-1061.3399999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>32914.174166</v>
+        <v>32914.174165999997</v>
       </c>
       <c r="BO14" s="1">
-        <v>9.142826</v>
+        <v>9.1428259999999995</v>
       </c>
       <c r="BP14" s="1">
-        <v>1982.500000</v>
+        <v>1982.5</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1837.650000</v>
+        <v>-1837.65</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>32924.737005</v>
+        <v>32924.737005000003</v>
       </c>
       <c r="BT14" s="1">
-        <v>9.145760</v>
+        <v>9.1457599999999992</v>
       </c>
       <c r="BU14" s="1">
-        <v>2367.920000</v>
+        <v>2367.92</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2732.590000</v>
+        <v>-2732.59</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>32935.524496</v>
+        <v>32935.524495999998</v>
       </c>
       <c r="BY14" s="1">
-        <v>9.148757</v>
+        <v>9.1487569999999998</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2848.800000</v>
+        <v>2848.8</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3717.450000</v>
+        <v>-3717.45</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>32947.569834</v>
+        <v>32947.569834000002</v>
       </c>
       <c r="CD14" s="1">
-        <v>9.152103</v>
+        <v>9.1521030000000003</v>
       </c>
       <c r="CE14" s="1">
-        <v>4277.040000</v>
+        <v>4277.04</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6100.670000</v>
+        <v>-6100.67</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>32777.236223</v>
       </c>
       <c r="B15" s="1">
-        <v>9.104788</v>
+        <v>9.1047879999999992</v>
       </c>
       <c r="C15" s="1">
-        <v>1242.040000</v>
+        <v>1242.04</v>
       </c>
       <c r="D15" s="1">
-        <v>-292.652000</v>
+        <v>-292.65199999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>32787.861485</v>
+        <v>32787.861485000001</v>
       </c>
       <c r="G15" s="1">
-        <v>9.107739</v>
+        <v>9.1077390000000005</v>
       </c>
       <c r="H15" s="1">
-        <v>1267.730000</v>
+        <v>1267.73</v>
       </c>
       <c r="I15" s="1">
-        <v>-256.445000</v>
+        <v>-256.44499999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>32798.282927</v>
       </c>
       <c r="L15" s="1">
-        <v>9.110634</v>
+        <v>9.1106339999999992</v>
       </c>
       <c r="M15" s="1">
-        <v>1305.710000</v>
+        <v>1305.71</v>
       </c>
       <c r="N15" s="1">
-        <v>-200.391000</v>
+        <v>-200.39099999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>32809.126961</v>
+        <v>32809.126961000002</v>
       </c>
       <c r="Q15" s="1">
-        <v>9.113646</v>
+        <v>9.1136459999999992</v>
       </c>
       <c r="R15" s="1">
-        <v>1318.680000</v>
+        <v>1318.68</v>
       </c>
       <c r="S15" s="1">
-        <v>-184.032000</v>
+        <v>-184.03200000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>32819.607427</v>
+        <v>32819.607427000003</v>
       </c>
       <c r="V15" s="1">
-        <v>9.116558</v>
+        <v>9.1165579999999995</v>
       </c>
       <c r="W15" s="1">
-        <v>1333.140000</v>
+        <v>1333.14</v>
       </c>
       <c r="X15" s="1">
-        <v>-171.175000</v>
+        <v>-171.17500000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>32829.808647</v>
+        <v>32829.808646999998</v>
       </c>
       <c r="AA15" s="1">
-        <v>9.119391</v>
+        <v>9.1193910000000002</v>
       </c>
       <c r="AB15" s="1">
-        <v>1351.440000</v>
+        <v>1351.44</v>
       </c>
       <c r="AC15" s="1">
-        <v>-169.457000</v>
+        <v>-169.45699999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>32840.300552</v>
+        <v>32840.300552000001</v>
       </c>
       <c r="AF15" s="1">
         <v>9.122306</v>
       </c>
       <c r="AG15" s="1">
-        <v>1364.860000</v>
+        <v>1364.86</v>
       </c>
       <c r="AH15" s="1">
-        <v>-179.121000</v>
+        <v>-179.12100000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>32850.524059</v>
+        <v>32850.524059000003</v>
       </c>
       <c r="AK15" s="1">
-        <v>9.125146</v>
+        <v>9.1251460000000009</v>
       </c>
       <c r="AL15" s="1">
-        <v>1385.800000</v>
+        <v>1385.8</v>
       </c>
       <c r="AM15" s="1">
-        <v>-208.986000</v>
+        <v>-208.98599999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>32861.319484</v>
       </c>
       <c r="AP15" s="1">
-        <v>9.128144</v>
+        <v>9.1281440000000007</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1407.550000</v>
+        <v>1407.55</v>
       </c>
       <c r="AR15" s="1">
-        <v>-252.793000</v>
+        <v>-252.79300000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>32872.052910</v>
+        <v>32872.052909999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>9.131126</v>
+        <v>9.1311260000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1432.100000</v>
+        <v>1432.1</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.808000</v>
+        <v>-312.80799999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>32882.439632</v>
+        <v>32882.439632000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>9.134011</v>
+        <v>9.1340109999999992</v>
       </c>
       <c r="BA15" s="1">
-        <v>1451.340000</v>
+        <v>1451.34</v>
       </c>
       <c r="BB15" s="1">
-        <v>-365.017000</v>
+        <v>-365.017</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>32892.970195</v>
+        <v>32892.970195000002</v>
       </c>
       <c r="BE15" s="1">
-        <v>9.136936</v>
+        <v>9.1369360000000004</v>
       </c>
       <c r="BF15" s="1">
-        <v>1536.170000</v>
+        <v>1536.17</v>
       </c>
       <c r="BG15" s="1">
-        <v>-614.066000</v>
+        <v>-614.06600000000003</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>32903.878709</v>
+        <v>32903.878708999997</v>
       </c>
       <c r="BJ15" s="1">
-        <v>9.139966</v>
+        <v>9.1399659999999994</v>
       </c>
       <c r="BK15" s="1">
-        <v>1689.590000</v>
+        <v>1689.59</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1061.310000</v>
+        <v>-1061.31</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>32914.594278</v>
+        <v>32914.594277999997</v>
       </c>
       <c r="BO15" s="1">
-        <v>9.142943</v>
+        <v>9.1429430000000007</v>
       </c>
       <c r="BP15" s="1">
-        <v>1982.430000</v>
+        <v>1982.43</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1837.440000</v>
+        <v>-1837.44</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>32925.164055</v>
+        <v>32925.164055000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>9.145879</v>
+        <v>9.1458790000000008</v>
       </c>
       <c r="BU15" s="1">
-        <v>2368.050000</v>
+        <v>2368.0500000000002</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2732.590000</v>
+        <v>-2732.59</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>32935.951515</v>
+        <v>32935.951515000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>9.148875</v>
+        <v>9.1488750000000003</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2849.130000</v>
+        <v>2849.13</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3717.320000</v>
+        <v>-3717.32</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>32948.087164</v>
+        <v>32948.087163999997</v>
       </c>
       <c r="CD15" s="1">
-        <v>9.152246</v>
+        <v>9.1522459999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>4273.220000</v>
+        <v>4273.22</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6084.820000</v>
+        <v>-6084.82</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>32777.578938</v>
+        <v>32777.578937999999</v>
       </c>
       <c r="B16" s="1">
-        <v>9.104883</v>
+        <v>9.1048829999999992</v>
       </c>
       <c r="C16" s="1">
-        <v>1242.120000</v>
+        <v>1242.1199999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-293.024000</v>
+        <v>-293.024</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>32788.205214</v>
+        <v>32788.205214000001</v>
       </c>
       <c r="G16" s="1">
-        <v>9.107835</v>
+        <v>9.1078349999999997</v>
       </c>
       <c r="H16" s="1">
-        <v>1267.190000</v>
+        <v>1267.19</v>
       </c>
       <c r="I16" s="1">
-        <v>-256.401000</v>
+        <v>-256.40100000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>32798.935166</v>
+        <v>32798.935166000003</v>
       </c>
       <c r="L16" s="1">
-        <v>9.110815</v>
+        <v>9.1108150000000006</v>
       </c>
       <c r="M16" s="1">
-        <v>1305.230000</v>
+        <v>1305.23</v>
       </c>
       <c r="N16" s="1">
-        <v>-200.380000</v>
+        <v>-200.38</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>32809.513345</v>
+        <v>32809.513344999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>9.113754</v>
+        <v>9.1137540000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1318.610000</v>
+        <v>1318.61</v>
       </c>
       <c r="S16" s="1">
-        <v>-184.027000</v>
+        <v>-184.02699999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>32820.001748</v>
+        <v>32820.001748000002</v>
       </c>
       <c r="V16" s="1">
-        <v>9.116667</v>
+        <v>9.1166669999999996</v>
       </c>
       <c r="W16" s="1">
-        <v>1333.050000</v>
+        <v>1333.05</v>
       </c>
       <c r="X16" s="1">
-        <v>-171.340000</v>
+        <v>-171.34</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>32830.156375</v>
+        <v>32830.156374999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>9.119488</v>
+        <v>9.1194880000000005</v>
       </c>
       <c r="AB16" s="1">
-        <v>1351.580000</v>
+        <v>1351.58</v>
       </c>
       <c r="AC16" s="1">
-        <v>-169.511000</v>
+        <v>-169.511</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>32840.647223</v>
       </c>
       <c r="AF16" s="1">
-        <v>9.122402</v>
+        <v>9.1224019999999992</v>
       </c>
       <c r="AG16" s="1">
-        <v>1364.870000</v>
+        <v>1364.87</v>
       </c>
       <c r="AH16" s="1">
-        <v>-179.174000</v>
+        <v>-179.17400000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>32850.872252</v>
+        <v>32850.872252000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>9.125242</v>
+        <v>9.1252420000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1385.790000</v>
+        <v>1385.79</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.017000</v>
+        <v>-209.017</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>32861.753515</v>
+        <v>32861.753514999997</v>
       </c>
       <c r="AP16" s="1">
-        <v>9.128265</v>
+        <v>9.1282650000000007</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1407.580000</v>
+        <v>1407.58</v>
       </c>
       <c r="AR16" s="1">
-        <v>-252.806000</v>
+        <v>-252.80600000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>32872.478018</v>
+        <v>32872.478018000002</v>
       </c>
       <c r="AU16" s="1">
-        <v>9.131244</v>
+        <v>9.1312440000000006</v>
       </c>
       <c r="AV16" s="1">
-        <v>1432.070000</v>
+        <v>1432.07</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.818000</v>
+        <v>-312.81799999999998</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>32882.742223</v>
+        <v>32882.742223000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>9.134095</v>
+        <v>9.1340950000000003</v>
       </c>
       <c r="BA16" s="1">
-        <v>1451.370000</v>
+        <v>1451.37</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.968000</v>
+        <v>-364.96800000000002</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>32893.332769</v>
+        <v>32893.332769000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>9.137037</v>
+        <v>9.1370369999999994</v>
       </c>
       <c r="BF16" s="1">
-        <v>1536.140000</v>
+        <v>1536.14</v>
       </c>
       <c r="BG16" s="1">
-        <v>-614.043000</v>
+        <v>-614.04300000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>32904.253683</v>
+        <v>32904.253683000003</v>
       </c>
       <c r="BJ16" s="1">
-        <v>9.140070</v>
+        <v>9.1400699999999997</v>
       </c>
       <c r="BK16" s="1">
-        <v>1689.620000</v>
+        <v>1689.62</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1061.320000</v>
+        <v>-1061.32</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>32914.990622</v>
+        <v>32914.990621999998</v>
       </c>
       <c r="BO16" s="1">
-        <v>9.143053</v>
+        <v>9.1430530000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1982.480000</v>
+        <v>1982.48</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1837.340000</v>
+        <v>-1837.34</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>32925.808862</v>
+        <v>32925.808861999998</v>
       </c>
       <c r="BT16" s="1">
         <v>9.146058</v>
       </c>
       <c r="BU16" s="1">
-        <v>2368.110000</v>
+        <v>2368.11</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2732.700000</v>
+        <v>-2732.7</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>32936.396921</v>
       </c>
       <c r="BY16" s="1">
-        <v>9.148999</v>
+        <v>9.1489989999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2849.730000</v>
+        <v>2849.73</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3716.990000</v>
+        <v>-3716.99</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>32948.607928</v>
+        <v>32948.607927999998</v>
       </c>
       <c r="CD16" s="1">
-        <v>9.152391</v>
+        <v>9.1523909999999997</v>
       </c>
       <c r="CE16" s="1">
-        <v>4258.490000</v>
+        <v>4258.49</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6088.710000</v>
+        <v>-6088.71</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>32778.227689</v>
+        <v>32778.227688999999</v>
       </c>
       <c r="B17" s="1">
-        <v>9.105063</v>
+        <v>9.1050629999999995</v>
       </c>
       <c r="C17" s="1">
-        <v>1241.530000</v>
+        <v>1241.53</v>
       </c>
       <c r="D17" s="1">
-        <v>-292.835000</v>
+        <v>-292.83499999999998</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>32788.856459</v>
+        <v>32788.856459000002</v>
       </c>
       <c r="G17" s="1">
-        <v>9.108016</v>
+        <v>9.1080159999999992</v>
       </c>
       <c r="H17" s="1">
-        <v>1267.170000</v>
+        <v>1267.17</v>
       </c>
       <c r="I17" s="1">
-        <v>-256.494000</v>
+        <v>-256.49400000000003</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>32799.320558</v>
+        <v>32799.320557999999</v>
       </c>
       <c r="L17" s="1">
-        <v>9.110922</v>
+        <v>9.1109220000000004</v>
       </c>
       <c r="M17" s="1">
-        <v>1305.620000</v>
+        <v>1305.6199999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-200.546000</v>
+        <v>-200.54599999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>32809.862064</v>
+        <v>32809.862064000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>9.113851</v>
+        <v>9.1138510000000004</v>
       </c>
       <c r="R17" s="1">
-        <v>1318.600000</v>
+        <v>1318.6</v>
       </c>
       <c r="S17" s="1">
-        <v>-184.016000</v>
+        <v>-184.01599999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>32820.347458</v>
+        <v>32820.347457999997</v>
       </c>
       <c r="V17" s="1">
-        <v>9.116763</v>
+        <v>9.1167630000000006</v>
       </c>
       <c r="W17" s="1">
-        <v>1333.110000</v>
+        <v>1333.11</v>
       </c>
       <c r="X17" s="1">
-        <v>-171.201000</v>
+        <v>-171.20099999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>32830.506518</v>
+        <v>32830.506518000002</v>
       </c>
       <c r="AA17" s="1">
-        <v>9.119585</v>
+        <v>9.1195850000000007</v>
       </c>
       <c r="AB17" s="1">
-        <v>1351.540000</v>
+        <v>1351.54</v>
       </c>
       <c r="AC17" s="1">
-        <v>-169.302000</v>
+        <v>-169.30199999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>32841.000375</v>
+        <v>32841.000375000003</v>
       </c>
       <c r="AF17" s="1">
-        <v>9.122500</v>
+        <v>9.1225000000000005</v>
       </c>
       <c r="AG17" s="1">
-        <v>1364.880000</v>
+        <v>1364.88</v>
       </c>
       <c r="AH17" s="1">
-        <v>-179.156000</v>
+        <v>-179.15600000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>32851.301332</v>
+        <v>32851.301332000003</v>
       </c>
       <c r="AK17" s="1">
-        <v>9.125361</v>
+        <v>9.1253609999999998</v>
       </c>
       <c r="AL17" s="1">
-        <v>1385.850000</v>
+        <v>1385.85</v>
       </c>
       <c r="AM17" s="1">
-        <v>-208.975000</v>
+        <v>-208.97499999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>32862.037971</v>
+        <v>32862.037970999998</v>
       </c>
       <c r="AP17" s="1">
-        <v>9.128344</v>
+        <v>9.1283440000000002</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1407.610000</v>
+        <v>1407.61</v>
       </c>
       <c r="AR17" s="1">
-        <v>-252.829000</v>
+        <v>-252.82900000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>32872.778595</v>
+        <v>32872.778595000003</v>
       </c>
       <c r="AU17" s="1">
-        <v>9.131327</v>
+        <v>9.1313270000000006</v>
       </c>
       <c r="AV17" s="1">
-        <v>1432.130000</v>
+        <v>1432.13</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.812000</v>
+        <v>-312.81200000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>32883.100832</v>
+        <v>32883.100831999996</v>
       </c>
       <c r="AZ17" s="1">
-        <v>9.134195</v>
+        <v>9.1341950000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1451.380000</v>
+        <v>1451.38</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.965000</v>
+        <v>-364.96499999999997</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>32893.690913</v>
+        <v>32893.690912999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>9.137136</v>
+        <v>9.1371359999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1536.140000</v>
+        <v>1536.14</v>
       </c>
       <c r="BG17" s="1">
-        <v>-614.032000</v>
+        <v>-614.03200000000004</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>32904.630148</v>
+        <v>32904.630147999997</v>
       </c>
       <c r="BJ17" s="1">
-        <v>9.140175</v>
+        <v>9.1401749999999993</v>
       </c>
       <c r="BK17" s="1">
-        <v>1689.670000</v>
+        <v>1689.67</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1061.310000</v>
+        <v>-1061.31</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>32915.415671</v>
+        <v>32915.415671000002</v>
       </c>
       <c r="BO17" s="1">
-        <v>9.143171</v>
+        <v>9.1431710000000006</v>
       </c>
       <c r="BP17" s="1">
-        <v>1982.480000</v>
+        <v>1982.48</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1837.360000</v>
+        <v>-1837.36</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>32926.007257</v>
+        <v>32926.007256999997</v>
       </c>
       <c r="BT17" s="1">
-        <v>9.146113</v>
+        <v>9.1461129999999997</v>
       </c>
       <c r="BU17" s="1">
-        <v>2368.200000</v>
+        <v>2368.1999999999998</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2732.340000</v>
+        <v>-2732.34</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>32936.831270</v>
+        <v>32936.831270000002</v>
       </c>
       <c r="BY17" s="1">
-        <v>9.149120</v>
+        <v>9.1491199999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2849.120000</v>
+        <v>2849.12</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3717.180000</v>
+        <v>-3717.18</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>32949.122776</v>
+        <v>32949.122775999997</v>
       </c>
       <c r="CD17" s="1">
-        <v>9.152534</v>
+        <v>9.1525339999999993</v>
       </c>
       <c r="CE17" s="1">
-        <v>4263.920000</v>
+        <v>4263.92</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6102.060000</v>
+        <v>-6102.06</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>32778.602171</v>
+        <v>32778.602170999999</v>
       </c>
       <c r="B18" s="1">
-        <v>9.105167</v>
+        <v>9.1051669999999998</v>
       </c>
       <c r="C18" s="1">
-        <v>1242.150000</v>
+        <v>1242.1500000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-292.886000</v>
+        <v>-292.88600000000002</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>32789.237916</v>
+        <v>32789.237915999998</v>
       </c>
       <c r="G18" s="1">
-        <v>9.108122</v>
+        <v>9.1081219999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>1266.880000</v>
+        <v>1266.8800000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-256.582000</v>
+        <v>-256.58199999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>32799.664811</v>
+        <v>32799.664811000002</v>
       </c>
       <c r="L18" s="1">
-        <v>9.111018</v>
+        <v>9.1110179999999996</v>
       </c>
       <c r="M18" s="1">
-        <v>1305.410000</v>
+        <v>1305.4100000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-200.603000</v>
+        <v>-200.60300000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>32810.210225</v>
+        <v>32810.210225000003</v>
       </c>
       <c r="Q18" s="1">
-        <v>9.113947</v>
+        <v>9.1139469999999996</v>
       </c>
       <c r="R18" s="1">
-        <v>1318.660000</v>
+        <v>1318.66</v>
       </c>
       <c r="S18" s="1">
-        <v>-183.976000</v>
+        <v>-183.976</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>32820.689201</v>
+        <v>32820.689201000001</v>
       </c>
       <c r="V18" s="1">
-        <v>9.116858</v>
+        <v>9.1168580000000006</v>
       </c>
       <c r="W18" s="1">
-        <v>1333.080000</v>
+        <v>1333.08</v>
       </c>
       <c r="X18" s="1">
-        <v>-171.281000</v>
+        <v>-171.28100000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>32830.933610</v>
+        <v>32830.93361</v>
       </c>
       <c r="AA18" s="1">
-        <v>9.119704</v>
+        <v>9.1197040000000005</v>
       </c>
       <c r="AB18" s="1">
-        <v>1351.570000</v>
+        <v>1351.57</v>
       </c>
       <c r="AC18" s="1">
-        <v>-169.621000</v>
+        <v>-169.62100000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>32841.418544</v>
       </c>
       <c r="AF18" s="1">
-        <v>9.122616</v>
+        <v>9.1226160000000007</v>
       </c>
       <c r="AG18" s="1">
-        <v>1364.850000</v>
+        <v>1364.85</v>
       </c>
       <c r="AH18" s="1">
-        <v>-179.167000</v>
+        <v>-179.167</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>32851.580072</v>
+        <v>32851.580071999997</v>
       </c>
       <c r="AK18" s="1">
-        <v>9.125439</v>
+        <v>9.1254390000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>1385.780000</v>
+        <v>1385.78</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.020000</v>
+        <v>-209.02</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>32862.398314</v>
+        <v>32862.398313999998</v>
       </c>
       <c r="AP18" s="1">
         <v>9.128444</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1407.560000</v>
+        <v>1407.56</v>
       </c>
       <c r="AR18" s="1">
-        <v>-252.768000</v>
+        <v>-252.768</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>32873.143612</v>
       </c>
       <c r="AU18" s="1">
-        <v>9.131429</v>
+        <v>9.1314290000000007</v>
       </c>
       <c r="AV18" s="1">
-        <v>1432.100000</v>
+        <v>1432.1</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.809000</v>
+        <v>-312.80900000000003</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>32883.459934</v>
+        <v>32883.459933999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>9.134294</v>
+        <v>9.1342940000000006</v>
       </c>
       <c r="BA18" s="1">
-        <v>1451.340000</v>
+        <v>1451.34</v>
       </c>
       <c r="BB18" s="1">
-        <v>-365.011000</v>
+        <v>-365.01100000000002</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>32894.412065</v>
+        <v>32894.412064999997</v>
       </c>
       <c r="BE18" s="1">
-        <v>9.137337</v>
+        <v>9.1373370000000005</v>
       </c>
       <c r="BF18" s="1">
-        <v>1536.140000</v>
+        <v>1536.14</v>
       </c>
       <c r="BG18" s="1">
-        <v>-614.036000</v>
+        <v>-614.03599999999994</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>32905.381587</v>
+        <v>32905.381587000003</v>
       </c>
       <c r="BJ18" s="1">
-        <v>9.140384</v>
+        <v>9.1403839999999992</v>
       </c>
       <c r="BK18" s="1">
-        <v>1689.710000</v>
+        <v>1689.71</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1061.220000</v>
+        <v>-1061.22</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>32915.810469</v>
+        <v>32915.810468999996</v>
       </c>
       <c r="BO18" s="1">
         <v>9.143281</v>
       </c>
       <c r="BP18" s="1">
-        <v>1982.580000</v>
+        <v>1982.58</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1837.490000</v>
+        <v>-1837.49</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>32926.440229</v>
       </c>
       <c r="BT18" s="1">
-        <v>9.146233</v>
+        <v>9.1462330000000005</v>
       </c>
       <c r="BU18" s="1">
-        <v>2368.220000</v>
+        <v>2368.2199999999998</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2732.360000</v>
+        <v>-2732.36</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>32937.251064</v>
+        <v>32937.251063999996</v>
       </c>
       <c r="BY18" s="1">
-        <v>9.149236</v>
+        <v>9.1492360000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2849.520000</v>
+        <v>2849.52</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3717.110000</v>
+        <v>-3717.11</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>32949.957074</v>
+        <v>32949.957073999998</v>
       </c>
       <c r="CD18" s="1">
-        <v>9.152766</v>
+        <v>9.1527659999999997</v>
       </c>
       <c r="CE18" s="1">
-        <v>4276.740000</v>
+        <v>4276.74</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6094.600000</v>
+        <v>-6094.6</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>32778.945576</v>
+        <v>32778.945575999998</v>
       </c>
       <c r="B19" s="1">
-        <v>9.105263</v>
+        <v>9.1052630000000008</v>
       </c>
       <c r="C19" s="1">
-        <v>1241.890000</v>
+        <v>1241.8900000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-292.920000</v>
+        <v>-292.92</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>32789.584588</v>
+        <v>32789.584587999998</v>
       </c>
       <c r="G19" s="1">
-        <v>9.108218</v>
+        <v>9.1082180000000008</v>
       </c>
       <c r="H19" s="1">
-        <v>1266.220000</v>
+        <v>1266.22</v>
       </c>
       <c r="I19" s="1">
-        <v>-256.894000</v>
+        <v>-256.89400000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>32800.007517</v>
+        <v>32800.007516999998</v>
       </c>
       <c r="L19" s="1">
-        <v>9.111113</v>
+        <v>9.1111129999999996</v>
       </c>
       <c r="M19" s="1">
-        <v>1305.150000</v>
+        <v>1305.1500000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-200.777000</v>
+        <v>-200.77699999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>32810.632815</v>
+        <v>32810.632814999997</v>
       </c>
       <c r="Q19" s="1">
-        <v>9.114065</v>
+        <v>9.1140650000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>1318.680000</v>
+        <v>1318.68</v>
       </c>
       <c r="S19" s="1">
-        <v>-183.889000</v>
+        <v>-183.88900000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>32821.111297</v>
+        <v>32821.111297000003</v>
       </c>
       <c r="V19" s="1">
-        <v>9.116975</v>
+        <v>9.1169750000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1333.110000</v>
+        <v>1333.11</v>
       </c>
       <c r="X19" s="1">
-        <v>-171.358000</v>
+        <v>-171.358</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>32831.210340</v>
+        <v>32831.210339999998</v>
       </c>
       <c r="AA19" s="1">
-        <v>9.119781</v>
+        <v>9.1197809999999997</v>
       </c>
       <c r="AB19" s="1">
-        <v>1351.540000</v>
+        <v>1351.54</v>
       </c>
       <c r="AC19" s="1">
-        <v>-169.236000</v>
+        <v>-169.23599999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>32841.732015</v>
+        <v>32841.732015000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>9.122703</v>
+        <v>9.1227029999999996</v>
       </c>
       <c r="AG19" s="1">
-        <v>1364.870000</v>
+        <v>1364.87</v>
       </c>
       <c r="AH19" s="1">
-        <v>-179.114000</v>
+        <v>-179.114</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>32851.930248</v>
+        <v>32851.930247999997</v>
       </c>
       <c r="AK19" s="1">
-        <v>9.125536</v>
+        <v>9.1255360000000003</v>
       </c>
       <c r="AL19" s="1">
-        <v>1385.830000</v>
+        <v>1385.83</v>
       </c>
       <c r="AM19" s="1">
-        <v>-208.993000</v>
+        <v>-208.99299999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>32862.757387</v>
+        <v>32862.757386999998</v>
       </c>
       <c r="AP19" s="1">
-        <v>9.128544</v>
+        <v>9.1285439999999998</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1407.560000</v>
+        <v>1407.56</v>
       </c>
       <c r="AR19" s="1">
-        <v>-252.802000</v>
+        <v>-252.80199999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>32873.506224</v>
+        <v>32873.506223999997</v>
       </c>
       <c r="AU19" s="1">
-        <v>9.131530</v>
+        <v>9.1315299999999997</v>
       </c>
       <c r="AV19" s="1">
-        <v>1432.110000</v>
+        <v>1432.11</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.799000</v>
+        <v>-312.79899999999998</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>32884.175134</v>
+        <v>32884.175133999997</v>
       </c>
       <c r="AZ19" s="1">
-        <v>9.134493</v>
+        <v>9.1344930000000009</v>
       </c>
       <c r="BA19" s="1">
-        <v>1451.320000</v>
+        <v>1451.32</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.982000</v>
+        <v>-364.98200000000003</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>32894.774177</v>
+        <v>32894.774176999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>9.137437</v>
+        <v>9.1374370000000003</v>
       </c>
       <c r="BF19" s="1">
-        <v>1536.130000</v>
+        <v>1536.13</v>
       </c>
       <c r="BG19" s="1">
-        <v>-614.034000</v>
+        <v>-614.03399999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>32905.754577</v>
       </c>
       <c r="BJ19" s="1">
-        <v>9.140487</v>
+        <v>9.1404870000000003</v>
       </c>
       <c r="BK19" s="1">
-        <v>1689.560000</v>
+        <v>1689.56</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1061.230000</v>
+        <v>-1061.23</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>32916.230581</v>
+        <v>32916.230581000003</v>
       </c>
       <c r="BO19" s="1">
-        <v>9.143397</v>
+        <v>9.1433970000000002</v>
       </c>
       <c r="BP19" s="1">
-        <v>1982.500000</v>
+        <v>1982.5</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1837.320000</v>
+        <v>-1837.32</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>32927.162942</v>
+        <v>32927.162942000003</v>
       </c>
       <c r="BT19" s="1">
-        <v>9.146434</v>
+        <v>9.1464339999999993</v>
       </c>
       <c r="BU19" s="1">
-        <v>2368.460000</v>
+        <v>2368.46</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2732.710000</v>
+        <v>-2732.71</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>32937.988615</v>
+        <v>32937.988615000002</v>
       </c>
       <c r="BY19" s="1">
-        <v>9.149441</v>
+        <v>9.1494409999999995</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2849.640000</v>
+        <v>2849.64</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3717.560000</v>
+        <v>-3717.56</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>32950.162390</v>
+        <v>32950.162389999998</v>
       </c>
       <c r="CD19" s="1">
-        <v>9.152823</v>
+        <v>9.1528229999999997</v>
       </c>
       <c r="CE19" s="1">
-        <v>4267.650000</v>
+        <v>4267.6499999999996</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6081.470000</v>
+        <v>-6081.47</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>32779.285657</v>
       </c>
       <c r="B20" s="1">
-        <v>9.105357</v>
+        <v>9.1053569999999997</v>
       </c>
       <c r="C20" s="1">
-        <v>1241.590000</v>
+        <v>1241.5899999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-293.122000</v>
+        <v>-293.12200000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>32789.929803</v>
+        <v>32789.929802999999</v>
       </c>
       <c r="G20" s="1">
         <v>9.108314</v>
       </c>
       <c r="H20" s="1">
-        <v>1267.460000</v>
+        <v>1267.46</v>
       </c>
       <c r="I20" s="1">
-        <v>-257.066000</v>
+        <v>-257.06599999999997</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>32800.430604</v>
+        <v>32800.430604000001</v>
       </c>
       <c r="L20" s="1">
-        <v>9.111231</v>
+        <v>9.1112310000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1305.460000</v>
+        <v>1305.46</v>
       </c>
       <c r="N20" s="1">
-        <v>-200.548000</v>
+        <v>-200.548</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>32810.923966</v>
+        <v>32810.923966000002</v>
       </c>
       <c r="Q20" s="1">
-        <v>9.114146</v>
+        <v>9.1141459999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>1318.720000</v>
+        <v>1318.72</v>
       </c>
       <c r="S20" s="1">
-        <v>-184.018000</v>
+        <v>-184.018</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>32821.402946</v>
+        <v>32821.402946000002</v>
       </c>
       <c r="V20" s="1">
-        <v>9.117056</v>
+        <v>9.1170559999999998</v>
       </c>
       <c r="W20" s="1">
-        <v>1333.100000</v>
+        <v>1333.1</v>
       </c>
       <c r="X20" s="1">
-        <v>-171.235000</v>
+        <v>-171.23500000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>32831.559523</v>
+        <v>32831.559523000004</v>
       </c>
       <c r="AA20" s="1">
-        <v>9.119878</v>
+        <v>9.1198779999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1351.390000</v>
+        <v>1351.39</v>
       </c>
       <c r="AC20" s="1">
-        <v>-169.571000</v>
+        <v>-169.571</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>32842.061355</v>
+        <v>32842.061354999998</v>
       </c>
       <c r="AF20" s="1">
         <v>9.122795</v>
       </c>
       <c r="AG20" s="1">
-        <v>1364.860000</v>
+        <v>1364.86</v>
       </c>
       <c r="AH20" s="1">
-        <v>-179.147000</v>
+        <v>-179.14699999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>32852.278904</v>
+        <v>32852.278903999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>9.125633</v>
+        <v>9.1256330000000005</v>
       </c>
       <c r="AL20" s="1">
-        <v>1385.800000</v>
+        <v>1385.8</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.017000</v>
+        <v>-209.017</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>32863.477577</v>
+        <v>32863.477576999998</v>
       </c>
       <c r="AP20" s="1">
-        <v>9.128744</v>
+        <v>9.1287439999999993</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1407.560000</v>
+        <v>1407.56</v>
       </c>
       <c r="AR20" s="1">
-        <v>-252.779000</v>
+        <v>-252.779</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>32874.241755</v>
+        <v>32874.241755000003</v>
       </c>
       <c r="AU20" s="1">
-        <v>9.131734</v>
+        <v>9.1317339999999998</v>
       </c>
       <c r="AV20" s="1">
-        <v>1432.130000</v>
+        <v>1432.13</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.788000</v>
+        <v>-312.78800000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>32884.536027</v>
+        <v>32884.536027000002</v>
       </c>
       <c r="AZ20" s="1">
-        <v>9.134593</v>
+        <v>9.1345930000000006</v>
       </c>
       <c r="BA20" s="1">
-        <v>1451.350000</v>
+        <v>1451.35</v>
       </c>
       <c r="BB20" s="1">
-        <v>-365.054000</v>
+        <v>-365.05399999999997</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>32895.134240</v>
+        <v>32895.134239999999</v>
       </c>
       <c r="BE20" s="1">
         <v>9.137537</v>
       </c>
       <c r="BF20" s="1">
-        <v>1536.150000</v>
+        <v>1536.15</v>
       </c>
       <c r="BG20" s="1">
-        <v>-614.030000</v>
+        <v>-614.03</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>32906.128596</v>
+        <v>32906.128596000002</v>
       </c>
       <c r="BJ20" s="1">
-        <v>9.140591</v>
+        <v>9.1405910000000006</v>
       </c>
       <c r="BK20" s="1">
-        <v>1689.630000</v>
+        <v>1689.63</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1061.260000</v>
+        <v>-1061.26</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>32916.929474</v>
+        <v>32916.929473999997</v>
       </c>
       <c r="BO20" s="1">
-        <v>9.143592</v>
+        <v>9.1435919999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1982.280000</v>
+        <v>1982.28</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1837.300000</v>
+        <v>-1837.3</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>32927.272021</v>
+        <v>32927.272020999997</v>
       </c>
       <c r="BT20" s="1">
-        <v>9.146464</v>
+        <v>9.1464639999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>2368.470000</v>
+        <v>2368.4699999999998</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2732.190000</v>
+        <v>-2732.19</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>32938.099724</v>
       </c>
       <c r="BY20" s="1">
-        <v>9.149472</v>
+        <v>9.1494719999999994</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2849.690000</v>
+        <v>2849.69</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3717.550000</v>
+        <v>-3717.55</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>32950.678231</v>
+        <v>32950.678230999998</v>
       </c>
       <c r="CD20" s="1">
-        <v>9.152966</v>
+        <v>9.1529659999999993</v>
       </c>
       <c r="CE20" s="1">
-        <v>4275.580000</v>
+        <v>4275.58</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6083.870000</v>
+        <v>-6083.87</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>32779.709241</v>
+        <v>32779.709240999997</v>
       </c>
       <c r="B21" s="1">
-        <v>9.105475</v>
+        <v>9.1054750000000002</v>
       </c>
       <c r="C21" s="1">
-        <v>1241.780000</v>
+        <v>1241.78</v>
       </c>
       <c r="D21" s="1">
-        <v>-292.701000</v>
+        <v>-292.70100000000002</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>32790.358346</v>
+        <v>32790.358346000001</v>
       </c>
       <c r="G21" s="1">
-        <v>9.108433</v>
+        <v>9.1084329999999998</v>
       </c>
       <c r="H21" s="1">
-        <v>1266.890000</v>
+        <v>1266.8900000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-256.299000</v>
+        <v>-256.29899999999998</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>32800.720764</v>
+        <v>32800.720763999998</v>
       </c>
       <c r="L21" s="1">
-        <v>9.111311</v>
+        <v>9.1113110000000006</v>
       </c>
       <c r="M21" s="1">
-        <v>1305.390000</v>
+        <v>1305.3900000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-200.829000</v>
+        <v>-200.82900000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>32811.271201</v>
+        <v>32811.271201000003</v>
       </c>
       <c r="Q21" s="1">
-        <v>9.114242</v>
+        <v>9.1142420000000008</v>
       </c>
       <c r="R21" s="1">
-        <v>1318.670000</v>
+        <v>1318.67</v>
       </c>
       <c r="S21" s="1">
-        <v>-183.973000</v>
+        <v>-183.97300000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>32821.743201</v>
+        <v>32821.743200999997</v>
       </c>
       <c r="V21" s="1">
-        <v>9.117151</v>
+        <v>9.1171509999999998</v>
       </c>
       <c r="W21" s="1">
-        <v>1333.080000</v>
+        <v>1333.08</v>
       </c>
       <c r="X21" s="1">
-        <v>-171.187000</v>
+        <v>-171.18700000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>32831.909203</v>
+        <v>32831.909203000003</v>
       </c>
       <c r="AA21" s="1">
-        <v>9.119975</v>
+        <v>9.1199750000000002</v>
       </c>
       <c r="AB21" s="1">
-        <v>1351.570000</v>
+        <v>1351.57</v>
       </c>
       <c r="AC21" s="1">
-        <v>-169.311000</v>
+        <v>-169.31100000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>32842.750796</v>
       </c>
       <c r="AF21" s="1">
-        <v>9.122986</v>
+        <v>9.1229859999999992</v>
       </c>
       <c r="AG21" s="1">
-        <v>1364.860000</v>
+        <v>1364.86</v>
       </c>
       <c r="AH21" s="1">
-        <v>-179.213000</v>
+        <v>-179.21299999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>32852.977307</v>
+        <v>32852.977307000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>9.125827</v>
+        <v>9.1258269999999992</v>
       </c>
       <c r="AL21" s="1">
-        <v>1385.800000</v>
+        <v>1385.8</v>
       </c>
       <c r="AM21" s="1">
-        <v>-208.995000</v>
+        <v>-208.995</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>32863.840650</v>
+        <v>32863.840649999998</v>
       </c>
       <c r="AP21" s="1">
-        <v>9.128845</v>
+        <v>9.1288450000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1407.590000</v>
+        <v>1407.59</v>
       </c>
       <c r="AR21" s="1">
-        <v>-252.786000</v>
+        <v>-252.786</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>32874.624703</v>
+        <v>32874.624703000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>9.131840</v>
+        <v>9.1318400000000004</v>
       </c>
       <c r="AV21" s="1">
-        <v>1432.070000</v>
+        <v>1432.07</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.835000</v>
+        <v>-312.83499999999998</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>32884.895852</v>
+        <v>32884.895852000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>9.134693</v>
+        <v>9.1346930000000004</v>
       </c>
       <c r="BA21" s="1">
-        <v>1451.330000</v>
+        <v>1451.33</v>
       </c>
       <c r="BB21" s="1">
-        <v>-365.031000</v>
+        <v>-365.03100000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>32895.804336</v>
+        <v>32895.804336000001</v>
       </c>
       <c r="BE21" s="1">
-        <v>9.137723</v>
+        <v>9.1377229999999994</v>
       </c>
       <c r="BF21" s="1">
-        <v>1536.150000</v>
+        <v>1536.15</v>
       </c>
       <c r="BG21" s="1">
-        <v>-614.077000</v>
+        <v>-614.077</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>32906.805632</v>
+        <v>32906.805632000003</v>
       </c>
       <c r="BJ21" s="1">
-        <v>9.140779</v>
+        <v>9.1407790000000002</v>
       </c>
       <c r="BK21" s="1">
-        <v>1689.620000</v>
+        <v>1689.62</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1061.270000</v>
+        <v>-1061.27</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>32917.064354</v>
+        <v>32917.064354000002</v>
       </c>
       <c r="BO21" s="1">
-        <v>9.143629</v>
+        <v>9.1436290000000007</v>
       </c>
       <c r="BP21" s="1">
-        <v>1982.450000</v>
+        <v>1982.45</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1837.550000</v>
+        <v>-1837.55</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>32927.706020</v>
+        <v>32927.706019999998</v>
       </c>
       <c r="BT21" s="1">
         <v>9.146585</v>
       </c>
       <c r="BU21" s="1">
-        <v>2368.340000</v>
+        <v>2368.34</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2732.090000</v>
+        <v>-2732.09</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>32938.548602</v>
+        <v>32938.548602000003</v>
       </c>
       <c r="BY21" s="1">
         <v>9.149597</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2849.780000</v>
+        <v>2849.78</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3717.000000</v>
+        <v>-3717</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>32951.231269</v>
+        <v>32951.231269000004</v>
       </c>
       <c r="CD21" s="1">
-        <v>9.153120</v>
+        <v>9.1531199999999995</v>
       </c>
       <c r="CE21" s="1">
-        <v>4275.930000</v>
+        <v>4275.93</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6096.010000</v>
+        <v>-6096.01</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>32779.987993</v>
+        <v>32779.987993000002</v>
       </c>
       <c r="B22" s="1">
-        <v>9.105552</v>
+        <v>9.1055519999999994</v>
       </c>
       <c r="C22" s="1">
-        <v>1241.720000</v>
+        <v>1241.72</v>
       </c>
       <c r="D22" s="1">
-        <v>-292.929000</v>
+        <v>-292.92899999999997</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>32790.627673</v>
+        <v>32790.627673000003</v>
       </c>
       <c r="G22" s="1">
-        <v>9.108508</v>
+        <v>9.1085080000000005</v>
       </c>
       <c r="H22" s="1">
-        <v>1266.260000</v>
+        <v>1266.26</v>
       </c>
       <c r="I22" s="1">
-        <v>-256.187000</v>
+        <v>-256.18700000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>32801.067965</v>
+        <v>32801.067965000002</v>
       </c>
       <c r="L22" s="1">
-        <v>9.111408</v>
+        <v>9.1114080000000008</v>
       </c>
       <c r="M22" s="1">
-        <v>1305.510000</v>
+        <v>1305.51</v>
       </c>
       <c r="N22" s="1">
-        <v>-200.484000</v>
+        <v>-200.48400000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>32811.617374</v>
+        <v>32811.617374000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>9.114338</v>
+        <v>9.1143380000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>1318.570000</v>
+        <v>1318.57</v>
       </c>
       <c r="S22" s="1">
-        <v>-183.992000</v>
+        <v>-183.99199999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>32822.087455</v>
+        <v>32822.087455000001</v>
       </c>
       <c r="V22" s="1">
-        <v>9.117247</v>
+        <v>9.1172470000000008</v>
       </c>
       <c r="W22" s="1">
-        <v>1333.160000</v>
+        <v>1333.16</v>
       </c>
       <c r="X22" s="1">
-        <v>-171.161000</v>
+        <v>-171.161</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>32832.600627</v>
       </c>
       <c r="AA22" s="1">
-        <v>9.120167</v>
+        <v>9.1201670000000004</v>
       </c>
       <c r="AB22" s="1">
-        <v>1351.320000</v>
+        <v>1351.32</v>
       </c>
       <c r="AC22" s="1">
-        <v>-169.538000</v>
+        <v>-169.53800000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>32843.099972</v>
+        <v>32843.099972000004</v>
       </c>
       <c r="AF22" s="1">
-        <v>9.123083</v>
+        <v>9.1230829999999994</v>
       </c>
       <c r="AG22" s="1">
-        <v>1364.840000</v>
+        <v>1364.84</v>
       </c>
       <c r="AH22" s="1">
-        <v>-179.124000</v>
+        <v>-179.124</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>32853.321990</v>
+        <v>32853.321989999997</v>
       </c>
       <c r="AK22" s="1">
-        <v>9.125923</v>
+        <v>9.1259230000000002</v>
       </c>
       <c r="AL22" s="1">
-        <v>1385.790000</v>
+        <v>1385.79</v>
       </c>
       <c r="AM22" s="1">
-        <v>-208.984000</v>
+        <v>-208.98400000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>32864.198760</v>
+        <v>32864.198759999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>9.128944</v>
+        <v>9.1289440000000006</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1407.580000</v>
+        <v>1407.58</v>
       </c>
       <c r="AR22" s="1">
-        <v>-252.813000</v>
+        <v>-252.81299999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>32874.988244</v>
       </c>
       <c r="AU22" s="1">
-        <v>9.131941</v>
+        <v>9.1319409999999994</v>
       </c>
       <c r="AV22" s="1">
-        <v>1432.070000</v>
+        <v>1432.07</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.867000</v>
+        <v>-312.86700000000002</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>32885.560460</v>
+        <v>32885.560460000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>9.134878</v>
+        <v>9.1348780000000005</v>
       </c>
       <c r="BA22" s="1">
-        <v>1451.350000</v>
+        <v>1451.35</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.944000</v>
+        <v>-364.94400000000002</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>32896.250736</v>
+        <v>32896.250736000002</v>
       </c>
       <c r="BE22" s="1">
-        <v>9.137847</v>
+        <v>9.1378470000000007</v>
       </c>
       <c r="BF22" s="1">
-        <v>1536.150000</v>
+        <v>1536.15</v>
       </c>
       <c r="BG22" s="1">
-        <v>-614.046000</v>
+        <v>-614.04600000000005</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>32907.257989</v>
+        <v>32907.257988999998</v>
       </c>
       <c r="BJ22" s="1">
-        <v>9.140905</v>
+        <v>9.1409050000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1689.610000</v>
+        <v>1689.61</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1061.280000</v>
+        <v>-1061.28</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>32917.473592</v>
+        <v>32917.473592000002</v>
       </c>
       <c r="BO22" s="1">
-        <v>9.143743</v>
+        <v>9.1437430000000006</v>
       </c>
       <c r="BP22" s="1">
-        <v>1982.490000</v>
+        <v>1982.49</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1837.410000</v>
+        <v>-1837.41</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>32928.131128</v>
+        <v>32928.131128000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>9.146703</v>
+        <v>9.1467030000000005</v>
       </c>
       <c r="BU22" s="1">
-        <v>2368.580000</v>
+        <v>2368.58</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2732.710000</v>
+        <v>-2732.71</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>32938.974664</v>
+        <v>32938.974664000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>9.149715</v>
+        <v>9.1497150000000005</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2849.090000</v>
+        <v>2849.09</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3716.510000</v>
+        <v>-3716.51</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>32951.759014</v>
+        <v>32951.759014000003</v>
       </c>
       <c r="CD22" s="1">
-        <v>9.153266</v>
+        <v>9.1532660000000003</v>
       </c>
       <c r="CE22" s="1">
-        <v>4269.080000</v>
+        <v>4269.08</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6081.800000</v>
+        <v>-6081.8</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>32780.329239</v>
+        <v>32780.329238999999</v>
       </c>
       <c r="B23" s="1">
-        <v>9.105647</v>
+        <v>9.1056469999999994</v>
       </c>
       <c r="C23" s="1">
-        <v>1241.710000</v>
+        <v>1241.71</v>
       </c>
       <c r="D23" s="1">
-        <v>-292.594000</v>
+        <v>-292.59399999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>32790.983316</v>
+        <v>32790.983315999998</v>
       </c>
       <c r="G23" s="1">
         <v>9.108606</v>
       </c>
       <c r="H23" s="1">
-        <v>1267.740000</v>
+        <v>1267.74</v>
       </c>
       <c r="I23" s="1">
-        <v>-256.812000</v>
+        <v>-256.81200000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>32801.414668</v>
+        <v>32801.414667999998</v>
       </c>
       <c r="L23" s="1">
         <v>9.111504</v>
       </c>
       <c r="M23" s="1">
-        <v>1305.480000</v>
+        <v>1305.48</v>
       </c>
       <c r="N23" s="1">
-        <v>-200.456000</v>
+        <v>-200.45599999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>32812.318258</v>
+        <v>32812.318257999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>9.114533</v>
+        <v>9.1145329999999998</v>
       </c>
       <c r="R23" s="1">
-        <v>1318.630000</v>
+        <v>1318.63</v>
       </c>
       <c r="S23" s="1">
-        <v>-183.917000</v>
+        <v>-183.917</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>32822.774879</v>
+        <v>32822.774878999997</v>
       </c>
       <c r="V23" s="1">
-        <v>9.117437</v>
+        <v>9.1174370000000007</v>
       </c>
       <c r="W23" s="1">
-        <v>1333.190000</v>
+        <v>1333.19</v>
       </c>
       <c r="X23" s="1">
-        <v>-171.253000</v>
+        <v>-171.25299999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>32832.953281</v>
+        <v>32832.953281000002</v>
       </c>
       <c r="AA23" s="1">
-        <v>9.120265</v>
+        <v>9.1202649999999998</v>
       </c>
       <c r="AB23" s="1">
-        <v>1351.510000</v>
+        <v>1351.51</v>
       </c>
       <c r="AC23" s="1">
-        <v>-169.443000</v>
+        <v>-169.44300000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>32843.441187</v>
+        <v>32843.441186999997</v>
       </c>
       <c r="AF23" s="1">
-        <v>9.123178</v>
+        <v>9.1231779999999993</v>
       </c>
       <c r="AG23" s="1">
-        <v>1364.830000</v>
+        <v>1364.83</v>
       </c>
       <c r="AH23" s="1">
-        <v>-179.179000</v>
+        <v>-179.179</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>32853.672050</v>
+        <v>32853.672050000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>9.126020</v>
+        <v>9.1260200000000005</v>
       </c>
       <c r="AL23" s="1">
-        <v>1385.820000</v>
+        <v>1385.82</v>
       </c>
       <c r="AM23" s="1">
-        <v>-208.965000</v>
+        <v>-208.965</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>32864.866377</v>
+        <v>32864.866376999998</v>
       </c>
       <c r="AP23" s="1">
-        <v>9.129130</v>
+        <v>9.12913</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1407.550000</v>
+        <v>1407.55</v>
       </c>
       <c r="AR23" s="1">
-        <v>-252.814000</v>
+        <v>-252.81399999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>32875.433678</v>
+        <v>32875.433678000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>9.132065</v>
+        <v>9.1320650000000008</v>
       </c>
       <c r="AV23" s="1">
-        <v>1432.100000</v>
+        <v>1432.1</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.836000</v>
+        <v>-312.83600000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>32885.972635</v>
+        <v>32885.972634999998</v>
       </c>
       <c r="AZ23" s="1">
-        <v>9.134992</v>
+        <v>9.1349920000000004</v>
       </c>
       <c r="BA23" s="1">
-        <v>1451.330000</v>
+        <v>1451.33</v>
       </c>
       <c r="BB23" s="1">
-        <v>-365.029000</v>
+        <v>-365.029</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>32896.613309</v>
       </c>
       <c r="BE23" s="1">
-        <v>9.137948</v>
+        <v>9.1379479999999997</v>
       </c>
       <c r="BF23" s="1">
-        <v>1536.160000</v>
+        <v>1536.16</v>
       </c>
       <c r="BG23" s="1">
-        <v>-614.012000</v>
+        <v>-614.01199999999994</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>32907.629951</v>
+        <v>32907.629951000003</v>
       </c>
       <c r="BJ23" s="1">
-        <v>9.141008</v>
+        <v>9.1410079999999994</v>
       </c>
       <c r="BK23" s="1">
-        <v>1689.620000</v>
+        <v>1689.62</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1061.230000</v>
+        <v>-1061.23</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>32917.868371</v>
+        <v>32917.868370999997</v>
       </c>
       <c r="BO23" s="1">
-        <v>9.143852</v>
+        <v>9.1438520000000008</v>
       </c>
       <c r="BP23" s="1">
-        <v>1982.520000</v>
+        <v>1982.52</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1837.250000</v>
+        <v>-1837.25</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>32928.546244</v>
+        <v>32928.546243999997</v>
       </c>
       <c r="BT23" s="1">
-        <v>9.146818</v>
+        <v>9.1468179999999997</v>
       </c>
       <c r="BU23" s="1">
-        <v>2368.240000</v>
+        <v>2368.2399999999998</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2732.330000</v>
+        <v>-2732.33</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>32939.397222</v>
       </c>
       <c r="BY23" s="1">
-        <v>9.149833</v>
+        <v>9.1498329999999992</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2848.760000</v>
+        <v>2848.76</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3717.150000</v>
+        <v>-3717.15</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>32952.279361</v>
+        <v>32952.279361000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>9.153411</v>
+        <v>9.1534110000000002</v>
       </c>
       <c r="CE23" s="1">
-        <v>4258.230000</v>
+        <v>4258.2299999999996</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6101.000000</v>
+        <v>-6101</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>32780.670519</v>
+        <v>32780.670518999999</v>
       </c>
       <c r="B24" s="1">
-        <v>9.105742</v>
+        <v>9.1057419999999993</v>
       </c>
       <c r="C24" s="1">
-        <v>1241.920000</v>
+        <v>1241.92</v>
       </c>
       <c r="D24" s="1">
-        <v>-292.497000</v>
+        <v>-292.49700000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>32791.658896</v>
+        <v>32791.658896000001</v>
       </c>
       <c r="G24" s="1">
-        <v>9.108794</v>
+        <v>9.1087939999999996</v>
       </c>
       <c r="H24" s="1">
-        <v>1266.640000</v>
+        <v>1266.6400000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-256.550000</v>
+        <v>-256.55</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>32802.111050</v>
+        <v>32802.11105</v>
       </c>
       <c r="L24" s="1">
-        <v>9.111698</v>
+        <v>9.1116980000000005</v>
       </c>
       <c r="M24" s="1">
-        <v>1305.540000</v>
+        <v>1305.54</v>
       </c>
       <c r="N24" s="1">
-        <v>-200.133000</v>
+        <v>-200.13300000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>32812.665949</v>
+        <v>32812.665949000002</v>
       </c>
       <c r="Q24" s="1">
-        <v>9.114629</v>
+        <v>9.1146290000000008</v>
       </c>
       <c r="R24" s="1">
-        <v>1318.660000</v>
+        <v>1318.66</v>
       </c>
       <c r="S24" s="1">
-        <v>-183.941000</v>
+        <v>-183.941</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>32823.116164</v>
+        <v>32823.116163999999</v>
       </c>
       <c r="V24" s="1">
-        <v>9.117532</v>
+        <v>9.1175320000000006</v>
       </c>
       <c r="W24" s="1">
-        <v>1333.120000</v>
+        <v>1333.12</v>
       </c>
       <c r="X24" s="1">
-        <v>-171.286000</v>
+        <v>-171.286</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>32833.304977</v>
       </c>
       <c r="AA24" s="1">
-        <v>9.120362</v>
+        <v>9.1203620000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1351.490000</v>
+        <v>1351.49</v>
       </c>
       <c r="AC24" s="1">
-        <v>-169.475000</v>
+        <v>-169.47499999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>32844.099411</v>
+        <v>32844.099411000003</v>
       </c>
       <c r="AF24" s="1">
-        <v>9.123361</v>
+        <v>9.1233609999999992</v>
       </c>
       <c r="AG24" s="1">
-        <v>1364.870000</v>
+        <v>1364.87</v>
       </c>
       <c r="AH24" s="1">
-        <v>-179.148000</v>
+        <v>-179.148</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>32854.336341</v>
+        <v>32854.336341000002</v>
       </c>
       <c r="AK24" s="1">
-        <v>9.126205</v>
+        <v>9.1262050000000006</v>
       </c>
       <c r="AL24" s="1">
-        <v>1385.800000</v>
+        <v>1385.8</v>
       </c>
       <c r="AM24" s="1">
-        <v>-208.972000</v>
+        <v>-208.97200000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>32865.312278</v>
+        <v>32865.312277999998</v>
       </c>
       <c r="AP24" s="1">
-        <v>9.129253</v>
+        <v>9.1292530000000003</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1407.560000</v>
+        <v>1407.56</v>
       </c>
       <c r="AR24" s="1">
-        <v>-252.771000</v>
+        <v>-252.77099999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>32875.719338</v>
+        <v>32875.719338000003</v>
       </c>
       <c r="AU24" s="1">
-        <v>9.132144</v>
+        <v>9.1321440000000003</v>
       </c>
       <c r="AV24" s="1">
-        <v>1432.090000</v>
+        <v>1432.09</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.775000</v>
+        <v>-312.77499999999998</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>32886.358060</v>
+        <v>32886.358059999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>9.135099</v>
+        <v>9.1350990000000003</v>
       </c>
       <c r="BA24" s="1">
-        <v>1451.360000</v>
+        <v>1451.36</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.993000</v>
+        <v>-364.99299999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>32896.971454</v>
+        <v>32896.971453999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>9.138048</v>
+        <v>9.1380479999999995</v>
       </c>
       <c r="BF24" s="1">
-        <v>1536.150000</v>
+        <v>1536.15</v>
       </c>
       <c r="BG24" s="1">
-        <v>-614.057000</v>
+        <v>-614.05700000000002</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>32908.006945</v>
+        <v>32908.006945000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>9.141113</v>
+        <v>9.1411130000000007</v>
       </c>
       <c r="BK24" s="1">
-        <v>1689.680000</v>
+        <v>1689.68</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1061.160000</v>
+        <v>-1061.1600000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>32918.297408</v>
+        <v>32918.297407999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>9.143972</v>
+        <v>9.1439719999999998</v>
       </c>
       <c r="BP24" s="1">
-        <v>1982.400000</v>
+        <v>1982.4</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1837.380000</v>
+        <v>-1837.38</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>32928.976803</v>
+        <v>32928.976802999998</v>
       </c>
       <c r="BT24" s="1">
-        <v>9.146938</v>
+        <v>9.1469380000000005</v>
       </c>
       <c r="BU24" s="1">
-        <v>2368.450000</v>
+        <v>2368.4499999999998</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2732.280000</v>
+        <v>-2732.28</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>32939.818366</v>
       </c>
       <c r="BY24" s="1">
-        <v>9.149950</v>
+        <v>9.1499500000000005</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2848.740000</v>
+        <v>2848.74</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3716.700000</v>
+        <v>-3716.7</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>32952.820947</v>
       </c>
       <c r="CD24" s="1">
-        <v>9.153561</v>
+        <v>9.1535609999999998</v>
       </c>
       <c r="CE24" s="1">
-        <v>4274.570000</v>
+        <v>4274.57</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6093.580000</v>
+        <v>-6093.58</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>32781.569239</v>
+        <v>32781.569238999997</v>
       </c>
       <c r="B25" s="1">
-        <v>9.105991</v>
+        <v>9.1059909999999995</v>
       </c>
       <c r="C25" s="1">
-        <v>1241.680000</v>
+        <v>1241.68</v>
       </c>
       <c r="D25" s="1">
-        <v>-293.225000</v>
+        <v>-293.22500000000002</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>32792.017000</v>
+        <v>32792.017</v>
       </c>
       <c r="G25" s="1">
-        <v>9.108894</v>
+        <v>9.1088939999999994</v>
       </c>
       <c r="H25" s="1">
-        <v>1266.990000</v>
+        <v>1266.99</v>
       </c>
       <c r="I25" s="1">
-        <v>-255.900000</v>
+        <v>-255.9</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>32802.460730</v>
+        <v>32802.460729999999</v>
       </c>
       <c r="L25" s="1">
-        <v>9.111795</v>
+        <v>9.1117950000000008</v>
       </c>
       <c r="M25" s="1">
-        <v>1305.290000</v>
+        <v>1305.29</v>
       </c>
       <c r="N25" s="1">
-        <v>-200.867000</v>
+        <v>-200.86699999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>32813.014144</v>
+        <v>32813.014144000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>9.114726</v>
+        <v>9.1147259999999992</v>
       </c>
       <c r="R25" s="1">
-        <v>1318.710000</v>
+        <v>1318.71</v>
       </c>
       <c r="S25" s="1">
-        <v>-183.949000</v>
+        <v>-183.94900000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>32823.461838</v>
+        <v>32823.461838000003</v>
       </c>
       <c r="V25" s="1">
-        <v>9.117628</v>
+        <v>9.1176279999999998</v>
       </c>
       <c r="W25" s="1">
-        <v>1333.040000</v>
+        <v>1333.04</v>
       </c>
       <c r="X25" s="1">
-        <v>-171.199000</v>
+        <v>-171.19900000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>32833.957190</v>
+        <v>32833.957190000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>9.120544</v>
+        <v>9.1205440000000007</v>
       </c>
       <c r="AB25" s="1">
-        <v>1351.600000</v>
+        <v>1351.6</v>
       </c>
       <c r="AC25" s="1">
-        <v>-169.355000</v>
+        <v>-169.35499999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>32844.470914</v>
+        <v>32844.470913999998</v>
       </c>
       <c r="AF25" s="1">
-        <v>9.123464</v>
+        <v>9.1234640000000002</v>
       </c>
       <c r="AG25" s="1">
-        <v>1364.870000</v>
+        <v>1364.87</v>
       </c>
       <c r="AH25" s="1">
-        <v>-179.141000</v>
+        <v>-179.14099999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>32854.720213</v>
+        <v>32854.720213000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>9.126311</v>
+        <v>9.1263109999999994</v>
       </c>
       <c r="AL25" s="1">
-        <v>1385.830000</v>
+        <v>1385.83</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.007000</v>
+        <v>-209.00700000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>32865.672872</v>
+        <v>32865.672872000003</v>
       </c>
       <c r="AP25" s="1">
-        <v>9.129354</v>
+        <v>9.1293539999999993</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1407.620000</v>
+        <v>1407.62</v>
       </c>
       <c r="AR25" s="1">
-        <v>-252.791000</v>
+        <v>-252.791</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>32876.081451</v>
+        <v>32876.081450999998</v>
       </c>
       <c r="AU25" s="1">
-        <v>9.132245</v>
+        <v>9.1322449999999993</v>
       </c>
       <c r="AV25" s="1">
-        <v>1432.060000</v>
+        <v>1432.06</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.786000</v>
+        <v>-312.786</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>32886.716140</v>
+        <v>32886.716139999997</v>
       </c>
       <c r="AZ25" s="1">
-        <v>9.135199</v>
+        <v>9.1351990000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1451.350000</v>
+        <v>1451.35</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.993000</v>
+        <v>-364.99299999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>32897.397020</v>
+        <v>32897.397019999997</v>
       </c>
       <c r="BE25" s="1">
         <v>9.138166</v>
       </c>
       <c r="BF25" s="1">
-        <v>1536.150000</v>
+        <v>1536.15</v>
       </c>
       <c r="BG25" s="1">
-        <v>-613.995000</v>
+        <v>-613.995</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>32908.509359</v>
+        <v>32908.509359000003</v>
       </c>
       <c r="BJ25" s="1">
-        <v>9.141253</v>
+        <v>9.1412530000000007</v>
       </c>
       <c r="BK25" s="1">
-        <v>1689.630000</v>
+        <v>1689.63</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1061.240000</v>
+        <v>-1061.24</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>32918.687793</v>
+        <v>32918.687792999997</v>
       </c>
       <c r="BO25" s="1">
-        <v>9.144080</v>
+        <v>9.1440800000000007</v>
       </c>
       <c r="BP25" s="1">
-        <v>1982.420000</v>
+        <v>1982.42</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1837.300000</v>
+        <v>-1837.3</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>32929.404851</v>
+        <v>32929.404850999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>9.147057</v>
+        <v>9.1470570000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>2368.430000</v>
+        <v>2368.4299999999998</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2732.330000</v>
+        <v>-2732.33</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>32940.275141</v>
+        <v>32940.275140999998</v>
       </c>
       <c r="BY25" s="1">
-        <v>9.150076</v>
+        <v>9.1500760000000003</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2849.080000</v>
+        <v>2849.08</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3717.640000</v>
+        <v>-3717.64</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>32953.358612</v>
+        <v>32953.358612000004</v>
       </c>
       <c r="CD25" s="1">
-        <v>9.153711</v>
+        <v>9.1537109999999995</v>
       </c>
       <c r="CE25" s="1">
-        <v>4256.410000</v>
+        <v>4256.41</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6084.870000</v>
+        <v>-6084.87</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>32781.919938</v>
+        <v>32781.919937999999</v>
       </c>
       <c r="B26" s="1">
-        <v>9.106089</v>
+        <v>9.1060890000000008</v>
       </c>
       <c r="C26" s="1">
-        <v>1241.680000</v>
+        <v>1241.68</v>
       </c>
       <c r="D26" s="1">
-        <v>-292.881000</v>
+        <v>-292.88099999999997</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>32792.361687</v>
+        <v>32792.361686999997</v>
       </c>
       <c r="G26" s="1">
-        <v>9.108989</v>
+        <v>9.1089889999999993</v>
       </c>
       <c r="H26" s="1">
-        <v>1267.300000</v>
+        <v>1267.3</v>
       </c>
       <c r="I26" s="1">
-        <v>-256.403000</v>
+        <v>-256.40300000000002</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>32802.808922</v>
+        <v>32802.808921999997</v>
       </c>
       <c r="L26" s="1">
         <v>9.111891</v>
       </c>
       <c r="M26" s="1">
-        <v>1305.440000</v>
+        <v>1305.44</v>
       </c>
       <c r="N26" s="1">
-        <v>-200.691000</v>
+        <v>-200.691</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>32813.658420</v>
+        <v>32813.65842</v>
       </c>
       <c r="Q26" s="1">
-        <v>9.114905</v>
+        <v>9.1149050000000003</v>
       </c>
       <c r="R26" s="1">
-        <v>1318.670000</v>
+        <v>1318.67</v>
       </c>
       <c r="S26" s="1">
-        <v>-184.005000</v>
+        <v>-184.005</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>32824.108130</v>
+        <v>32824.108130000001</v>
       </c>
       <c r="V26" s="1">
-        <v>9.117808</v>
+        <v>9.1178080000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1333.020000</v>
+        <v>1333.02</v>
       </c>
       <c r="X26" s="1">
-        <v>-171.358000</v>
+        <v>-171.358</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>32834.348033</v>
+        <v>32834.348033000002</v>
       </c>
       <c r="AA26" s="1">
-        <v>9.120652</v>
+        <v>9.1206519999999998</v>
       </c>
       <c r="AB26" s="1">
-        <v>1351.460000</v>
+        <v>1351.46</v>
       </c>
       <c r="AC26" s="1">
-        <v>-169.277000</v>
+        <v>-169.27699999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>32844.813123</v>
       </c>
       <c r="AF26" s="1">
-        <v>9.123559</v>
+        <v>9.1235590000000002</v>
       </c>
       <c r="AG26" s="1">
-        <v>1364.820000</v>
+        <v>1364.82</v>
       </c>
       <c r="AH26" s="1">
-        <v>-179.126000</v>
+        <v>-179.126</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>32855.065924</v>
+        <v>32855.065924000002</v>
       </c>
       <c r="AK26" s="1">
-        <v>9.126407</v>
+        <v>9.1264070000000004</v>
       </c>
       <c r="AL26" s="1">
-        <v>1385.820000</v>
+        <v>1385.82</v>
       </c>
       <c r="AM26" s="1">
-        <v>-208.960000</v>
+        <v>-208.96</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>32866.033462</v>
+        <v>32866.033461999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>9.129454</v>
+        <v>9.1294540000000008</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1407.600000</v>
+        <v>1407.6</v>
       </c>
       <c r="AR26" s="1">
-        <v>-252.793000</v>
+        <v>-252.79300000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>32876.500041</v>
+        <v>32876.500040999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>9.132361</v>
+        <v>9.1323609999999995</v>
       </c>
       <c r="AV26" s="1">
-        <v>1432.110000</v>
+        <v>1432.11</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.802000</v>
+        <v>-312.80200000000002</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>32887.132779</v>
       </c>
       <c r="AZ26" s="1">
-        <v>9.135315</v>
+        <v>9.1353150000000003</v>
       </c>
       <c r="BA26" s="1">
-        <v>1451.320000</v>
+        <v>1451.32</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.975000</v>
+        <v>-364.97500000000002</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>32897.695581</v>
       </c>
       <c r="BE26" s="1">
-        <v>9.138249</v>
+        <v>9.1382490000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1536.180000</v>
+        <v>1536.18</v>
       </c>
       <c r="BG26" s="1">
-        <v>-614.024000</v>
+        <v>-614.024</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>32908.790621</v>
       </c>
       <c r="BJ26" s="1">
-        <v>9.141331</v>
+        <v>9.1413309999999992</v>
       </c>
       <c r="BK26" s="1">
-        <v>1689.600000</v>
+        <v>1689.6</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1061.130000</v>
+        <v>-1061.1300000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>32919.108367</v>
+        <v>32919.108367000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>9.144197</v>
+        <v>9.1441970000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1982.500000</v>
+        <v>1982.5</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1837.450000</v>
+        <v>-1837.45</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>32929.819971</v>
+        <v>32929.819970999997</v>
       </c>
       <c r="BT26" s="1">
-        <v>9.147172</v>
+        <v>9.1471719999999994</v>
       </c>
       <c r="BU26" s="1">
-        <v>2368.210000</v>
+        <v>2368.21</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2732.310000</v>
+        <v>-2732.31</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>32940.691779</v>
+        <v>32940.691779000001</v>
       </c>
       <c r="BY26" s="1">
-        <v>9.150192</v>
+        <v>9.1501920000000005</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2849.270000</v>
+        <v>2849.27</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3717.430000</v>
+        <v>-3717.43</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>32953.897788</v>
+        <v>32953.897788000002</v>
       </c>
       <c r="CD26" s="1">
-        <v>9.153860</v>
+        <v>9.1538599999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>4268.970000</v>
+        <v>4268.97</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6104.770000</v>
+        <v>-6104.77</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>